--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1158"/>
+  <dimension ref="A1:R1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82284,41 +82284,41 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="K1138" t="n">
-        <v>18000</v>
+        <v>47000</v>
       </c>
       <c r="L1138" t="n">
-        <v>18000</v>
+        <v>48000</v>
       </c>
       <c r="M1138" t="n">
-        <v>18000</v>
+        <v>47429</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>1000</v>
+        <v>3162</v>
       </c>
       <c r="Q1138" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82356,41 +82356,41 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="K1139" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="L1139" t="n">
-        <v>16000</v>
+        <v>46000</v>
       </c>
       <c r="M1139" t="n">
-        <v>16000</v>
+        <v>45500</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>889</v>
+        <v>3033</v>
       </c>
       <c r="Q1139" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82428,41 +82428,41 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="K1140" t="n">
-        <v>13000</v>
+        <v>43000</v>
       </c>
       <c r="L1140" t="n">
-        <v>13000</v>
+        <v>44000</v>
       </c>
       <c r="M1140" t="n">
-        <v>13000</v>
+        <v>43500</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>722</v>
+        <v>2900</v>
       </c>
       <c r="Q1140" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82500,25 +82500,25 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K1141" t="n">
-        <v>25000</v>
+        <v>41000</v>
       </c>
       <c r="L1141" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="M1141" t="n">
-        <v>25000</v>
+        <v>41500</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>1667</v>
+        <v>2767</v>
       </c>
       <c r="Q1141" t="n">
         <v>15</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82577,20 +82577,20 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K1142" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="L1142" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="M1142" t="n">
-        <v>23000</v>
+        <v>44500</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>1533</v>
+        <v>2967</v>
       </c>
       <c r="Q1142" t="n">
         <v>15</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82649,20 +82649,20 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K1143" t="n">
-        <v>21000</v>
+        <v>42000</v>
       </c>
       <c r="L1143" t="n">
-        <v>21000</v>
+        <v>43000</v>
       </c>
       <c r="M1143" t="n">
-        <v>21000</v>
+        <v>42489</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>1400</v>
+        <v>2833</v>
       </c>
       <c r="Q1143" t="n">
         <v>15</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82716,25 +82716,25 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="K1144" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L1144" t="n">
-        <v>16000</v>
+        <v>41000</v>
       </c>
       <c r="M1144" t="n">
-        <v>16000</v>
+        <v>40500</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>1067</v>
+        <v>2700</v>
       </c>
       <c r="Q1144" t="n">
         <v>15</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82788,25 +82788,25 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K1145" t="n">
-        <v>13000</v>
+        <v>38000</v>
       </c>
       <c r="L1145" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="M1145" t="n">
-        <v>13000</v>
+        <v>38500</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>867</v>
+        <v>2567</v>
       </c>
       <c r="Q1145" t="n">
         <v>15</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82865,20 +82865,20 @@
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K1146" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="L1146" t="n">
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="M1146" t="n">
-        <v>10000</v>
+        <v>37500</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>667</v>
+        <v>2500</v>
       </c>
       <c r="Q1146" t="n">
         <v>15</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82932,25 +82932,25 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="K1147" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L1147" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M1147" t="n">
-        <v>34000</v>
+        <v>35494</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>2267</v>
+        <v>2366</v>
       </c>
       <c r="Q1147" t="n">
         <v>15</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83004,25 +83004,25 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K1148" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L1148" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M1148" t="n">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>2167</v>
+        <v>2233</v>
       </c>
       <c r="Q1148" t="n">
         <v>15</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -83076,25 +83076,25 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K1149" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L1149" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M1149" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>2033</v>
+        <v>2100</v>
       </c>
       <c r="Q1149" t="n">
         <v>15</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -83148,41 +83148,41 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="K1150" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L1150" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="M1150" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>1933</v>
+        <v>1000</v>
       </c>
       <c r="Q1150" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -83220,41 +83220,41 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="K1151" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L1151" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M1151" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>1400</v>
+        <v>889</v>
       </c>
       <c r="Q1151" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -83292,41 +83292,41 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K1152" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L1152" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M1152" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1152" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>1300</v>
+        <v>722</v>
       </c>
       <c r="Q1152" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -83369,20 +83369,20 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K1153" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L1153" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M1153" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>1167</v>
+        <v>1667</v>
       </c>
       <c r="Q1153" t="n">
         <v>15</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -83441,20 +83441,20 @@
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K1154" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L1154" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M1154" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>1067</v>
+        <v>1533</v>
       </c>
       <c r="Q1154" t="n">
         <v>15</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -83508,25 +83508,25 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1155" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L1155" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M1155" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>1267</v>
+        <v>1400</v>
       </c>
       <c r="Q1155" t="n">
         <v>15</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K1156" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L1156" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M1156" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>1167</v>
+        <v>1067</v>
       </c>
       <c r="Q1156" t="n">
         <v>15</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -83661,16 +83661,16 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1157" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1157" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M1157" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>1033</v>
+        <v>867</v>
       </c>
       <c r="Q1157" t="n">
         <v>15</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="K1158" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L1158" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1158" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,12 +83755,876 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="Q1158" t="n">
         <v>15</v>
       </c>
       <c r="R1158" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1159" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1159" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1159" t="inlineStr">
+        <is>
+          <t>Zafiro amarillo</t>
+        </is>
+      </c>
+      <c r="I1159" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1159" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>34000</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>34000</v>
+      </c>
+      <c r="N1159" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1159" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1159" t="n">
+        <v>2267</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1159" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1160" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1160" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1160" t="inlineStr">
+        <is>
+          <t>Zafiro amarillo</t>
+        </is>
+      </c>
+      <c r="I1160" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1160" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>33000</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>32500</v>
+      </c>
+      <c r="N1160" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1160" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1160" t="n">
+        <v>2167</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1160" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1161" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>Zafiro amarillo</t>
+        </is>
+      </c>
+      <c r="I1161" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1161" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>30500</v>
+      </c>
+      <c r="N1161" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1161" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1161" t="n">
+        <v>2033</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1161" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1162" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>Zafiro amarillo</t>
+        </is>
+      </c>
+      <c r="I1162" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1162" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N1162" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1162" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1162" t="n">
+        <v>1933</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1162" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1163" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1163" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1163" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1163" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1163" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>21000</v>
+      </c>
+      <c r="N1163" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1163" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1163" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1163" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1164" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1164" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1164" t="n">
+        <v>180</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N1164" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1164" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1164" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1164" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1165" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1165" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N1165" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1165" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1165" t="n">
+        <v>1167</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1165" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1166" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1166" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1166" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1166" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N1166" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1166" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1166" t="n">
+        <v>1067</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1166" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1167" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1167" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1167" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1167" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N1167" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1167" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1167" t="n">
+        <v>1267</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1167" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1168" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1168" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1168" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1168" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1168" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N1168" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1168" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1168" t="n">
+        <v>1167</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1168" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1169" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1169" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1169" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1169" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1169" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N1169" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1169" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1169" t="n">
+        <v>1033</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1169" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1170" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1170" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1170" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1170" t="n">
+        <v>97</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N1170" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1170" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1170" t="n">
+        <v>933</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1170" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1327"/>
+  <dimension ref="A1:R1339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K1156" t="n">
-        <v>49000</v>
+        <v>48000</v>
       </c>
       <c r="L1156" t="n">
         <v>50000</v>
       </c>
       <c r="M1156" t="n">
-        <v>49500</v>
+        <v>49037</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>3300</v>
+        <v>3269</v>
       </c>
       <c r="Q1156" t="n">
         <v>15</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -83661,17 +83661,17 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K1157" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>46000</v>
+      </c>
+      <c r="M1157" t="n">
         <v>45000</v>
       </c>
-      <c r="L1157" t="n">
-        <v>47000</v>
-      </c>
-      <c r="M1157" t="n">
-        <v>45977</v>
-      </c>
       <c r="N1157" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>3065</v>
+        <v>3000</v>
       </c>
       <c r="Q1157" t="n">
         <v>15</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83733,17 +83733,17 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1158" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1158" t="n">
         <v>41000</v>
       </c>
-      <c r="L1158" t="n">
-        <v>43000</v>
-      </c>
-      <c r="M1158" t="n">
-        <v>42000</v>
-      </c>
       <c r="N1158" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>2800</v>
+        <v>2733</v>
       </c>
       <c r="Q1158" t="n">
         <v>15</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -83805,16 +83805,16 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K1159" t="n">
+        <v>37000</v>
+      </c>
+      <c r="L1159" t="n">
         <v>38000</v>
       </c>
-      <c r="L1159" t="n">
-        <v>39000</v>
-      </c>
       <c r="M1159" t="n">
-        <v>38480</v>
+        <v>37500</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>2565</v>
+        <v>2500</v>
       </c>
       <c r="Q1159" t="n">
         <v>15</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -83877,16 +83877,16 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K1160" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="L1160" t="n">
-        <v>45000</v>
+        <v>47000</v>
       </c>
       <c r="M1160" t="n">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>2933</v>
+        <v>3067</v>
       </c>
       <c r="Q1160" t="n">
         <v>15</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K1161" t="n">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="L1161" t="n">
-        <v>41000</v>
+        <v>43000</v>
       </c>
       <c r="M1161" t="n">
-        <v>40492</v>
+        <v>41987</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>2699</v>
+        <v>2799</v>
       </c>
       <c r="Q1161" t="n">
         <v>15</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K1162" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="L1162" t="n">
-        <v>38000</v>
+        <v>40000</v>
       </c>
       <c r="M1162" t="n">
-        <v>37023</v>
+        <v>38971</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>2468</v>
+        <v>2598</v>
       </c>
       <c r="Q1162" t="n">
         <v>15</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -84096,13 +84096,13 @@
         <v>25</v>
       </c>
       <c r="K1163" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="L1163" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M1163" t="n">
-        <v>32960</v>
+        <v>34960</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>2197</v>
+        <v>2331</v>
       </c>
       <c r="Q1163" t="n">
         <v>15</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K1164" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L1164" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M1164" t="n">
-        <v>34512</v>
+        <v>36000</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>2301</v>
+        <v>2400</v>
       </c>
       <c r="Q1164" t="n">
         <v>15</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -84240,14 +84240,14 @@
         <v>124</v>
       </c>
       <c r="K1165" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L1165" t="n">
+        <v>33000</v>
+      </c>
+      <c r="M1165" t="n">
         <v>32000</v>
       </c>
-      <c r="M1165" t="n">
-        <v>31000</v>
-      </c>
       <c r="N1165" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>2067</v>
+        <v>2133</v>
       </c>
       <c r="Q1165" t="n">
         <v>15</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -84309,16 +84309,16 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K1166" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L1166" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M1166" t="n">
-        <v>28000</v>
+        <v>29100</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>1867</v>
+        <v>1940</v>
       </c>
       <c r="Q1166" t="n">
         <v>15</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -84381,16 +84381,16 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1167" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L1167" t="n">
         <v>25000</v>
       </c>
       <c r="M1167" t="n">
-        <v>24500</v>
+        <v>23440</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>1633</v>
+        <v>1563</v>
       </c>
       <c r="Q1167" t="n">
         <v>15</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -84444,41 +84444,41 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="K1168" t="n">
-        <v>24000</v>
+        <v>49000</v>
       </c>
       <c r="L1168" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M1168" t="n">
-        <v>24500</v>
+        <v>49500</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1168" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>1361</v>
+        <v>3300</v>
       </c>
       <c r="Q1168" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -84516,41 +84516,41 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K1169" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="L1169" t="n">
-        <v>23000</v>
+        <v>47000</v>
       </c>
       <c r="M1169" t="n">
-        <v>22500</v>
+        <v>45977</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>1250</v>
+        <v>3065</v>
       </c>
       <c r="Q1169" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -84588,41 +84588,41 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K1170" t="n">
-        <v>20000</v>
+        <v>41000</v>
       </c>
       <c r="L1170" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="M1170" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1170" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>1111</v>
+        <v>2800</v>
       </c>
       <c r="Q1170" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -84660,41 +84660,41 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="K1171" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="L1171" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="M1171" t="n">
-        <v>14500</v>
+        <v>38480</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1171" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>806</v>
+        <v>2565</v>
       </c>
       <c r="Q1171" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -84732,41 +84732,41 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K1172" t="n">
-        <v>12000</v>
+        <v>43000</v>
       </c>
       <c r="L1172" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M1172" t="n">
-        <v>12500</v>
+        <v>44000</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1172" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>694</v>
+        <v>2933</v>
       </c>
       <c r="Q1172" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -84804,41 +84804,41 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K1173" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="L1173" t="n">
-        <v>10000</v>
+        <v>41000</v>
       </c>
       <c r="M1173" t="n">
-        <v>10000</v>
+        <v>40492</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>556</v>
+        <v>2699</v>
       </c>
       <c r="Q1173" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -84876,41 +84876,41 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="K1174" t="n">
-        <v>15000</v>
+        <v>36000</v>
       </c>
       <c r="L1174" t="n">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="M1174" t="n">
-        <v>15500</v>
+        <v>37023</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>861</v>
+        <v>2468</v>
       </c>
       <c r="Q1174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -84948,41 +84948,41 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K1175" t="n">
-        <v>13000</v>
+        <v>32000</v>
       </c>
       <c r="L1175" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="M1175" t="n">
-        <v>13500</v>
+        <v>32960</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1175" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>750</v>
+        <v>2197</v>
       </c>
       <c r="Q1175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -85020,41 +85020,41 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K1176" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="L1176" t="n">
-        <v>11000</v>
+        <v>35000</v>
       </c>
       <c r="M1176" t="n">
-        <v>11000</v>
+        <v>34512</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>611</v>
+        <v>2301</v>
       </c>
       <c r="Q1176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -85092,25 +85092,25 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="K1177" t="n">
         <v>30000</v>
       </c>
       <c r="L1177" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M1177" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
@@ -85123,7 +85123,7 @@
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>2000</v>
+        <v>2067</v>
       </c>
       <c r="Q1177" t="n">
         <v>15</v>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -85164,26 +85164,26 @@
       </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K1178" t="n">
         <v>27000</v>
       </c>
       <c r="L1178" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M1178" t="n">
         <v>28000</v>
       </c>
-      <c r="M1178" t="n">
-        <v>27500</v>
-      </c>
       <c r="N1178" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>1833</v>
+        <v>1867</v>
       </c>
       <c r="Q1178" t="n">
         <v>15</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -85236,16 +85236,16 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K1179" t="n">
         <v>24000</v>
@@ -85308,41 +85308,41 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K1180" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L1180" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M1180" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>1467</v>
+        <v>1361</v>
       </c>
       <c r="Q1180" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
@@ -85380,41 +85380,41 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1181" t="n">
         <v>50</v>
       </c>
       <c r="K1181" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="L1181" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M1181" t="n">
-        <v>26000</v>
+        <v>22500</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>1733</v>
+        <v>1250</v>
       </c>
       <c r="Q1181" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85452,41 +85452,41 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="K1182" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L1182" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M1182" t="n">
-        <v>23500</v>
+        <v>20000</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1182" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>1567</v>
+        <v>1111</v>
       </c>
       <c r="Q1182" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1182" t="inlineStr">
         <is>
@@ -85524,41 +85524,41 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K1183" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L1183" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M1183" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1183" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>1367</v>
+        <v>806</v>
       </c>
       <c r="Q1183" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1183" t="inlineStr">
         <is>
@@ -85596,41 +85596,41 @@
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1184" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1184" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M1184" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1184" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>1200</v>
+        <v>694</v>
       </c>
       <c r="Q1184" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1184" t="inlineStr">
         <is>
@@ -85668,41 +85668,41 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K1185" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L1185" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1185" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1185" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>967</v>
+        <v>556</v>
       </c>
       <c r="Q1185" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1185" t="inlineStr">
         <is>
@@ -85740,41 +85740,41 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K1186" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1186" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M1186" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>767</v>
+        <v>861</v>
       </c>
       <c r="Q1186" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
@@ -85812,41 +85812,41 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K1187" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1187" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M1187" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q1187" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1187" t="inlineStr">
         <is>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -85889,20 +85889,20 @@
       </c>
       <c r="I1188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K1188" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L1188" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M1188" t="n">
-        <v>17500</v>
+        <v>11000</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85915,7 +85915,7 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>972</v>
+        <v>611</v>
       </c>
       <c r="Q1188" t="n">
         <v>18</v>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -85956,41 +85956,41 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="K1189" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L1189" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M1189" t="n">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>861</v>
+        <v>2000</v>
       </c>
       <c r="Q1189" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1189" t="inlineStr">
         <is>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -86028,41 +86028,41 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K1190" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="L1190" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="M1190" t="n">
-        <v>13000</v>
+        <v>27500</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>722</v>
+        <v>1833</v>
       </c>
       <c r="Q1190" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -86105,20 +86105,20 @@
       </c>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K1191" t="n">
         <v>24000</v>
       </c>
       <c r="L1191" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M1191" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86131,7 +86131,7 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>1600</v>
+        <v>1633</v>
       </c>
       <c r="Q1191" t="n">
         <v>15</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -86177,20 +86177,20 @@
       </c>
       <c r="I1192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K1192" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L1192" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M1192" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="Q1192" t="n">
         <v>15</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -86249,20 +86249,20 @@
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K1193" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L1193" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M1193" t="n">
-        <v>24467</v>
+        <v>26000</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>1631</v>
+        <v>1733</v>
       </c>
       <c r="Q1193" t="n">
         <v>15</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -86321,20 +86321,20 @@
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K1194" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L1194" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M1194" t="n">
-        <v>21333</v>
+        <v>23500</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>1422</v>
+        <v>1567</v>
       </c>
       <c r="Q1194" t="n">
         <v>15</v>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -86393,20 +86393,20 @@
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1195" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1195" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M1195" t="n">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86419,7 +86419,7 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>1200</v>
+        <v>1367</v>
       </c>
       <c r="Q1195" t="n">
         <v>15</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1196" t="n">
         <v>13</v>
@@ -86460,41 +86460,41 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K1196" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1196" t="n">
         <v>18000</v>
       </c>
       <c r="M1196" t="n">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1196" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>978</v>
+        <v>1200</v>
       </c>
       <c r="Q1196" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1197" t="n">
         <v>13</v>
@@ -86537,36 +86537,36 @@
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="K1197" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1197" t="n">
         <v>15000</v>
       </c>
-      <c r="L1197" t="n">
-        <v>16000</v>
-      </c>
       <c r="M1197" t="n">
-        <v>15727</v>
+        <v>14500</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1197" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>874</v>
+        <v>967</v>
       </c>
       <c r="Q1197" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1197" t="inlineStr">
         <is>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1198" t="n">
         <v>13</v>
@@ -86609,36 +86609,36 @@
       </c>
       <c r="I1198" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K1198" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L1198" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M1198" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1198" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>722</v>
+        <v>767</v>
       </c>
       <c r="Q1198" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1198" t="inlineStr">
         <is>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -86676,25 +86676,25 @@
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K1199" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="L1199" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="M1199" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
@@ -86707,7 +86707,7 @@
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="Q1199" t="n">
         <v>15</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44175</v>
+        <v>44370</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -86748,7 +86748,7 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
@@ -86757,32 +86757,32 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K1200" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L1200" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="M1200" t="n">
-        <v>28500</v>
+        <v>17500</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1200" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>1900</v>
+        <v>972</v>
       </c>
       <c r="Q1200" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1200" t="inlineStr">
         <is>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44175</v>
+        <v>44370</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -86820,7 +86820,7 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
@@ -86829,32 +86829,32 @@
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K1201" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="L1201" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="M1201" t="n">
-        <v>26500</v>
+        <v>15500</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1201" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>1767</v>
+        <v>861</v>
       </c>
       <c r="Q1201" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44175</v>
+        <v>44370</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -86892,41 +86892,41 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="K1202" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L1202" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M1202" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1202" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>1167</v>
+        <v>722</v>
       </c>
       <c r="Q1202" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -86964,25 +86964,25 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K1203" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L1203" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M1203" t="n">
-        <v>15500</v>
+        <v>24000</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
@@ -86995,7 +86995,7 @@
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>1033</v>
+        <v>1600</v>
       </c>
       <c r="Q1203" t="n">
         <v>15</v>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -87041,20 +87041,20 @@
       </c>
       <c r="I1204" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K1204" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="L1204" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M1204" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87067,7 +87067,7 @@
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>2133</v>
+        <v>1333</v>
       </c>
       <c r="Q1204" t="n">
         <v>15</v>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -87108,7 +87108,7 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
@@ -87117,16 +87117,16 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="K1205" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L1205" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M1205" t="n">
-        <v>30500</v>
+        <v>24467</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
@@ -87139,7 +87139,7 @@
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>2033</v>
+        <v>1631</v>
       </c>
       <c r="Q1205" t="n">
         <v>15</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -87180,7 +87180,7 @@
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
@@ -87189,16 +87189,16 @@
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="K1206" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L1206" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M1206" t="n">
-        <v>28512</v>
+        <v>21333</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87211,7 +87211,7 @@
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>1901</v>
+        <v>1422</v>
       </c>
       <c r="Q1206" t="n">
         <v>15</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -87252,7 +87252,7 @@
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -87261,16 +87261,16 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K1207" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L1207" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M1207" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87283,7 +87283,7 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q1207" t="n">
         <v>15</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -87324,16 +87324,16 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K1208" t="n">
         <v>17000</v>
@@ -87342,23 +87342,23 @@
         <v>18000</v>
       </c>
       <c r="M1208" t="n">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1208" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>1167</v>
+        <v>978</v>
       </c>
       <c r="Q1208" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -87396,16 +87396,16 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K1209" t="n">
         <v>15000</v>
@@ -87414,23 +87414,23 @@
         <v>16000</v>
       </c>
       <c r="M1209" t="n">
-        <v>15500</v>
+        <v>15727</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1209" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>1033</v>
+        <v>874</v>
       </c>
       <c r="Q1209" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1209" t="inlineStr">
         <is>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -87468,41 +87468,41 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="K1210" t="n">
         <v>13000</v>
       </c>
       <c r="L1210" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M1210" t="n">
-        <v>13495</v>
+        <v>13000</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1210" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="Q1210" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1210" t="inlineStr">
         <is>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -87545,20 +87545,20 @@
       </c>
       <c r="I1211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K1211" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1211" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M1211" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87571,7 +87571,7 @@
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q1211" t="n">
         <v>15</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -87612,25 +87612,25 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K1212" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L1212" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="M1212" t="n">
-        <v>15000</v>
+        <v>28500</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
@@ -87643,7 +87643,7 @@
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="Q1212" t="n">
         <v>15</v>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -87684,25 +87684,25 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K1213" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="L1213" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M1213" t="n">
-        <v>13500</v>
+        <v>26500</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87715,7 +87715,7 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>900</v>
+        <v>1767</v>
       </c>
       <c r="Q1213" t="n">
         <v>15</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -87761,20 +87761,20 @@
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K1214" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L1214" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M1214" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87787,7 +87787,7 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>767</v>
+        <v>1167</v>
       </c>
       <c r="Q1214" t="n">
         <v>15</v>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1215" t="n">
         <v>13</v>
@@ -87833,20 +87833,20 @@
       </c>
       <c r="I1215" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="K1215" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1215" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1215" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87859,7 +87859,7 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>667</v>
+        <v>1033</v>
       </c>
       <c r="Q1215" t="n">
         <v>15</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -87900,41 +87900,41 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="K1216" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="L1216" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="M1216" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1216" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>778</v>
+        <v>2133</v>
       </c>
       <c r="Q1216" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1216" t="inlineStr">
         <is>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -87972,41 +87972,41 @@
       </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1217" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1217" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="M1217" t="n">
-        <v>12000</v>
+        <v>30500</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1217" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>667</v>
+        <v>2033</v>
       </c>
       <c r="Q1217" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1217" t="inlineStr">
         <is>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -88044,41 +88044,41 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K1218" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L1218" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="M1218" t="n">
-        <v>10000</v>
+        <v>28512</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1218" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>556</v>
+        <v>1901</v>
       </c>
       <c r="Q1218" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1218" t="inlineStr">
         <is>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -88116,41 +88116,41 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K1219" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="L1219" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="M1219" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1219" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>667</v>
+        <v>1800</v>
       </c>
       <c r="Q1219" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1219" t="inlineStr">
         <is>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -88188,41 +88188,41 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1220" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L1220" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M1220" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1220" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="Q1220" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1220" t="inlineStr">
         <is>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1221" t="n">
         <v>13</v>
@@ -88260,41 +88260,41 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1221" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L1221" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M1221" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1221" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>444</v>
+        <v>1033</v>
       </c>
       <c r="Q1221" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1221" t="inlineStr">
         <is>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1222" t="n">
         <v>13</v>
@@ -88332,25 +88332,25 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K1222" t="n">
-        <v>49000</v>
+        <v>13000</v>
       </c>
       <c r="L1222" t="n">
-        <v>50000</v>
+        <v>14000</v>
       </c>
       <c r="M1222" t="n">
-        <v>49500</v>
+        <v>13495</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>3300</v>
+        <v>900</v>
       </c>
       <c r="Q1222" t="n">
         <v>15</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1223" t="n">
         <v>13</v>
@@ -88404,25 +88404,25 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K1223" t="n">
-        <v>47000</v>
+        <v>12000</v>
       </c>
       <c r="L1223" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
       <c r="M1223" t="n">
-        <v>47512</v>
+        <v>12000</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
@@ -88435,7 +88435,7 @@
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>3167</v>
+        <v>800</v>
       </c>
       <c r="Q1223" t="n">
         <v>15</v>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1224" t="n">
         <v>13</v>
@@ -88476,25 +88476,25 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1224" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="L1224" t="n">
-        <v>46000</v>
+        <v>15000</v>
       </c>
       <c r="M1224" t="n">
-        <v>45500</v>
+        <v>15000</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
@@ -88507,7 +88507,7 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>3033</v>
+        <v>1000</v>
       </c>
       <c r="Q1224" t="n">
         <v>15</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -88548,25 +88548,25 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="K1225" t="n">
-        <v>43000</v>
+        <v>13000</v>
       </c>
       <c r="L1225" t="n">
-        <v>44000</v>
+        <v>14000</v>
       </c>
       <c r="M1225" t="n">
-        <v>43476</v>
+        <v>13500</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88579,7 +88579,7 @@
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>2898</v>
+        <v>900</v>
       </c>
       <c r="Q1225" t="n">
         <v>15</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -88620,25 +88620,25 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K1226" t="n">
-        <v>45000</v>
+        <v>11000</v>
       </c>
       <c r="L1226" t="n">
-        <v>46000</v>
+        <v>12000</v>
       </c>
       <c r="M1226" t="n">
-        <v>45480</v>
+        <v>11500</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88651,7 +88651,7 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>3032</v>
+        <v>767</v>
       </c>
       <c r="Q1226" t="n">
         <v>15</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -88692,25 +88692,25 @@
       </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K1227" t="n">
-        <v>43000</v>
+        <v>10000</v>
       </c>
       <c r="L1227" t="n">
-        <v>44000</v>
+        <v>10000</v>
       </c>
       <c r="M1227" t="n">
-        <v>43506</v>
+        <v>10000</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>2900</v>
+        <v>667</v>
       </c>
       <c r="Q1227" t="n">
         <v>15</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -88764,41 +88764,41 @@
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K1228" t="n">
-        <v>41000</v>
+        <v>14000</v>
       </c>
       <c r="L1228" t="n">
-        <v>42000</v>
+        <v>14000</v>
       </c>
       <c r="M1228" t="n">
-        <v>41492</v>
+        <v>14000</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1228" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>2766</v>
+        <v>778</v>
       </c>
       <c r="Q1228" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1228" t="inlineStr">
         <is>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -88836,41 +88836,41 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1229" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K1229" t="n">
-        <v>39000</v>
+        <v>12000</v>
       </c>
       <c r="L1229" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M1229" t="n">
-        <v>39512</v>
+        <v>12000</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1229" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>2634</v>
+        <v>667</v>
       </c>
       <c r="Q1229" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1229" t="inlineStr">
         <is>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1230" t="n">
         <v>13</v>
@@ -88908,41 +88908,41 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K1230" t="n">
-        <v>39000</v>
+        <v>10000</v>
       </c>
       <c r="L1230" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="M1230" t="n">
-        <v>39512</v>
+        <v>10000</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1230" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>2634</v>
+        <v>556</v>
       </c>
       <c r="Q1230" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1230" t="inlineStr">
         <is>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1231" t="n">
         <v>13</v>
@@ -88980,7 +88980,7 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -88989,32 +88989,32 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="K1231" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="L1231" t="n">
-        <v>38000</v>
+        <v>12000</v>
       </c>
       <c r="M1231" t="n">
-        <v>37496</v>
+        <v>12000</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1231" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>2500</v>
+        <v>667</v>
       </c>
       <c r="Q1231" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1231" t="inlineStr">
         <is>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1232" t="n">
         <v>13</v>
@@ -89052,7 +89052,7 @@
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
@@ -89061,32 +89061,32 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1232" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L1232" t="n">
-        <v>36000</v>
+        <v>10000</v>
       </c>
       <c r="M1232" t="n">
-        <v>35494</v>
+        <v>10000</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1232" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>2366</v>
+        <v>556</v>
       </c>
       <c r="Q1232" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1232" t="inlineStr">
         <is>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1233" t="n">
         <v>13</v>
@@ -89124,7 +89124,7 @@
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1233" t="inlineStr">
@@ -89133,32 +89133,32 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K1233" t="n">
-        <v>33000</v>
+        <v>8000</v>
       </c>
       <c r="L1233" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="M1233" t="n">
-        <v>33492</v>
+        <v>8000</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1233" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>2233</v>
+        <v>444</v>
       </c>
       <c r="Q1233" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1233" t="inlineStr">
         <is>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E1234" t="n">
         <v>13</v>
@@ -89196,41 +89196,41 @@
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="K1234" t="n">
-        <v>16000</v>
+        <v>49000</v>
       </c>
       <c r="L1234" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="M1234" t="n">
-        <v>16000</v>
+        <v>49500</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1234" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>889</v>
+        <v>3300</v>
       </c>
       <c r="Q1234" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1234" t="inlineStr">
         <is>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89268,41 +89268,41 @@
       </c>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K1235" t="n">
-        <v>14000</v>
+        <v>47000</v>
       </c>
       <c r="L1235" t="n">
-        <v>14000</v>
+        <v>48000</v>
       </c>
       <c r="M1235" t="n">
-        <v>14000</v>
+        <v>47512</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1235" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>778</v>
+        <v>3167</v>
       </c>
       <c r="Q1235" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1235" t="inlineStr">
         <is>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89340,25 +89340,25 @@
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1236" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="L1236" t="n">
-        <v>40000</v>
+        <v>46000</v>
       </c>
       <c r="M1236" t="n">
-        <v>40000</v>
+        <v>45500</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89371,7 +89371,7 @@
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>2667</v>
+        <v>3033</v>
       </c>
       <c r="Q1236" t="n">
         <v>15</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -89412,25 +89412,25 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1237" t="n">
-        <v>37000</v>
+        <v>43000</v>
       </c>
       <c r="L1237" t="n">
-        <v>37000</v>
+        <v>44000</v>
       </c>
       <c r="M1237" t="n">
-        <v>37000</v>
+        <v>43476</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89443,7 +89443,7 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>2467</v>
+        <v>2898</v>
       </c>
       <c r="Q1237" t="n">
         <v>15</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="E1238" t="n">
         <v>13</v>
@@ -89484,25 +89484,25 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K1238" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L1238" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="M1238" t="n">
-        <v>35000</v>
+        <v>45480</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>2333</v>
+        <v>3032</v>
       </c>
       <c r="Q1238" t="n">
         <v>15</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="E1239" t="n">
         <v>13</v>
@@ -89556,25 +89556,25 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K1239" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="L1239" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="M1239" t="n">
-        <v>30000</v>
+        <v>43506</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="Q1239" t="n">
         <v>15</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E1240" t="n">
         <v>13</v>
@@ -89628,25 +89628,25 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="K1240" t="n">
-        <v>45000</v>
+        <v>41000</v>
       </c>
       <c r="L1240" t="n">
-        <v>46000</v>
+        <v>42000</v>
       </c>
       <c r="M1240" t="n">
-        <v>45429</v>
+        <v>41492</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89659,7 +89659,7 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>3029</v>
+        <v>2766</v>
       </c>
       <c r="Q1240" t="n">
         <v>15</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E1241" t="n">
         <v>13</v>
@@ -89700,25 +89700,25 @@
       </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K1241" t="n">
-        <v>43000</v>
+        <v>39000</v>
       </c>
       <c r="L1241" t="n">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="M1241" t="n">
-        <v>43500</v>
+        <v>39512</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89731,7 +89731,7 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>2900</v>
+        <v>2634</v>
       </c>
       <c r="Q1241" t="n">
         <v>15</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E1242" t="n">
         <v>13</v>
@@ -89772,25 +89772,25 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K1242" t="n">
-        <v>41000</v>
+        <v>39000</v>
       </c>
       <c r="L1242" t="n">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="M1242" t="n">
-        <v>41480</v>
+        <v>39512</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89803,7 +89803,7 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>2765</v>
+        <v>2634</v>
       </c>
       <c r="Q1242" t="n">
         <v>15</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E1243" t="n">
         <v>13</v>
@@ -89844,25 +89844,25 @@
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="K1243" t="n">
-        <v>39000</v>
+        <v>37000</v>
       </c>
       <c r="L1243" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="M1243" t="n">
-        <v>39500</v>
+        <v>37496</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>2633</v>
+        <v>2500</v>
       </c>
       <c r="Q1243" t="n">
         <v>15</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E1244" t="n">
         <v>13</v>
@@ -89916,25 +89916,25 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="K1244" t="n">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="L1244" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M1244" t="n">
-        <v>44500</v>
+        <v>35494</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>2967</v>
+        <v>2366</v>
       </c>
       <c r="Q1244" t="n">
         <v>15</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E1245" t="n">
         <v>13</v>
@@ -89988,25 +89988,25 @@
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K1245" t="n">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="L1245" t="n">
-        <v>43000</v>
+        <v>34000</v>
       </c>
       <c r="M1245" t="n">
-        <v>42488</v>
+        <v>33492</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>2833</v>
+        <v>2233</v>
       </c>
       <c r="Q1245" t="n">
         <v>15</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44445</v>
+        <v>44181</v>
       </c>
       <c r="E1246" t="n">
         <v>13</v>
@@ -90060,41 +90060,41 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="K1246" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L1246" t="n">
-        <v>41000</v>
+        <v>16000</v>
       </c>
       <c r="M1246" t="n">
-        <v>40500</v>
+        <v>16000</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1246" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>2700</v>
+        <v>889</v>
       </c>
       <c r="Q1246" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1246" t="inlineStr">
         <is>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44445</v>
+        <v>44181</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90132,41 +90132,41 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K1247" t="n">
-        <v>38000</v>
+        <v>14000</v>
       </c>
       <c r="L1247" t="n">
-        <v>39000</v>
+        <v>14000</v>
       </c>
       <c r="M1247" t="n">
-        <v>38480</v>
+        <v>14000</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1247" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>2565</v>
+        <v>778</v>
       </c>
       <c r="Q1247" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1247" t="inlineStr">
         <is>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90204,25 +90204,25 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K1248" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="L1248" t="n">
-        <v>37000</v>
+        <v>40000</v>
       </c>
       <c r="M1248" t="n">
-        <v>36480</v>
+        <v>40000</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>2432</v>
+        <v>2667</v>
       </c>
       <c r="Q1248" t="n">
         <v>15</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1249" t="n">
         <v>13</v>
@@ -90276,25 +90276,25 @@
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="K1249" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L1249" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M1249" t="n">
-        <v>34500</v>
+        <v>37000</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>2300</v>
+        <v>2467</v>
       </c>
       <c r="Q1249" t="n">
         <v>15</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1250" t="n">
         <v>13</v>
@@ -90353,20 +90353,20 @@
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K1250" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L1250" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M1250" t="n">
-        <v>32494</v>
+        <v>35000</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>2166</v>
+        <v>2333</v>
       </c>
       <c r="Q1250" t="n">
         <v>15</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1251" t="n">
         <v>13</v>
@@ -90425,20 +90425,20 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K1251" t="n">
         <v>30000</v>
       </c>
       <c r="L1251" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M1251" t="n">
-        <v>30500</v>
+        <v>30000</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>2033</v>
+        <v>2000</v>
       </c>
       <c r="Q1251" t="n">
         <v>15</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1252" t="n">
         <v>13</v>
@@ -90492,41 +90492,41 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="K1252" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="L1252" t="n">
-        <v>13000</v>
+        <v>46000</v>
       </c>
       <c r="M1252" t="n">
-        <v>13000</v>
+        <v>45429</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1252" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>722</v>
+        <v>3029</v>
       </c>
       <c r="Q1252" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1252" t="inlineStr">
         <is>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1253" t="n">
         <v>13</v>
@@ -90564,41 +90564,41 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K1253" t="n">
-        <v>11000</v>
+        <v>43000</v>
       </c>
       <c r="L1253" t="n">
-        <v>11000</v>
+        <v>44000</v>
       </c>
       <c r="M1253" t="n">
-        <v>11000</v>
+        <v>43500</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1253" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>611</v>
+        <v>2900</v>
       </c>
       <c r="Q1253" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1253" t="inlineStr">
         <is>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90636,41 +90636,41 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K1254" t="n">
-        <v>9000</v>
+        <v>41000</v>
       </c>
       <c r="L1254" t="n">
-        <v>9000</v>
+        <v>42000</v>
       </c>
       <c r="M1254" t="n">
-        <v>9000</v>
+        <v>41480</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>500</v>
+        <v>2765</v>
       </c>
       <c r="Q1254" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1254" t="inlineStr">
         <is>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1255" t="n">
         <v>13</v>
@@ -90708,41 +90708,41 @@
       </c>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="K1255" t="n">
-        <v>11000</v>
+        <v>39000</v>
       </c>
       <c r="L1255" t="n">
-        <v>11000</v>
+        <v>40000</v>
       </c>
       <c r="M1255" t="n">
-        <v>11000</v>
+        <v>39500</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1255" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>611</v>
+        <v>2633</v>
       </c>
       <c r="Q1255" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1255" t="inlineStr">
         <is>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1256" t="n">
         <v>13</v>
@@ -90780,41 +90780,41 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K1256" t="n">
-        <v>9000</v>
+        <v>44000</v>
       </c>
       <c r="L1256" t="n">
-        <v>9000</v>
+        <v>45000</v>
       </c>
       <c r="M1256" t="n">
-        <v>9000</v>
+        <v>44500</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>500</v>
+        <v>2967</v>
       </c>
       <c r="Q1256" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1256" t="inlineStr">
         <is>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90852,41 +90852,41 @@
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K1257" t="n">
-        <v>7000</v>
+        <v>42000</v>
       </c>
       <c r="L1257" t="n">
-        <v>7000</v>
+        <v>43000</v>
       </c>
       <c r="M1257" t="n">
-        <v>7000</v>
+        <v>42488</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1257" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>389</v>
+        <v>2833</v>
       </c>
       <c r="Q1257" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1257" t="inlineStr">
         <is>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1258" t="n">
         <v>13</v>
@@ -90929,36 +90929,36 @@
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1258" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L1258" t="n">
-        <v>15000</v>
+        <v>41000</v>
       </c>
       <c r="M1258" t="n">
-        <v>15000</v>
+        <v>40500</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1258" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>833</v>
+        <v>2700</v>
       </c>
       <c r="Q1258" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1258" t="inlineStr">
         <is>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1259" t="n">
         <v>13</v>
@@ -91001,36 +91001,36 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K1259" t="n">
-        <v>13000</v>
+        <v>38000</v>
       </c>
       <c r="L1259" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="M1259" t="n">
-        <v>13000</v>
+        <v>38480</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1259" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>722</v>
+        <v>2565</v>
       </c>
       <c r="Q1259" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1259" t="inlineStr">
         <is>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1260" t="n">
         <v>13</v>
@@ -91068,41 +91068,41 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K1260" t="n">
-        <v>11000</v>
+        <v>36000</v>
       </c>
       <c r="L1260" t="n">
-        <v>11000</v>
+        <v>37000</v>
       </c>
       <c r="M1260" t="n">
-        <v>11000</v>
+        <v>36480</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1260" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>611</v>
+        <v>2432</v>
       </c>
       <c r="Q1260" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1260" t="inlineStr">
         <is>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1261" t="n">
         <v>13</v>
@@ -91149,32 +91149,32 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="K1261" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="L1261" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M1261" t="n">
-        <v>12000</v>
+        <v>34500</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1261" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>667</v>
+        <v>2300</v>
       </c>
       <c r="Q1261" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1261" t="inlineStr">
         <is>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -91221,32 +91221,32 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K1262" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L1262" t="n">
-        <v>10000</v>
+        <v>33000</v>
       </c>
       <c r="M1262" t="n">
-        <v>10000</v>
+        <v>32494</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1262" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>556</v>
+        <v>2166</v>
       </c>
       <c r="Q1262" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1262" t="inlineStr">
         <is>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1263" t="n">
         <v>13</v>
@@ -91293,32 +91293,32 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1263" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="L1263" t="n">
-        <v>8000</v>
+        <v>31000</v>
       </c>
       <c r="M1263" t="n">
-        <v>8000</v>
+        <v>30500</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>444</v>
+        <v>2033</v>
       </c>
       <c r="Q1263" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1263" t="inlineStr">
         <is>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1264" t="n">
         <v>13</v>
@@ -91356,7 +91356,7 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
@@ -91365,16 +91365,16 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1264" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1264" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1264" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91383,11 +91383,11 @@
       </c>
       <c r="O1264" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q1264" t="n">
         <v>18</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91428,7 +91428,7 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -91437,16 +91437,16 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1265" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L1265" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M1265" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91455,11 +91455,11 @@
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q1265" t="n">
         <v>18</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1266" t="n">
         <v>13</v>
@@ -91500,25 +91500,25 @@
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1266" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L1266" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M1266" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91527,11 +91527,11 @@
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>1111</v>
+        <v>500</v>
       </c>
       <c r="Q1266" t="n">
         <v>18</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1267" t="n">
         <v>13</v>
@@ -91572,25 +91572,25 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1267" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L1267" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M1267" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91599,11 +91599,11 @@
       </c>
       <c r="O1267" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="Q1267" t="n">
         <v>18</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1268" t="n">
         <v>13</v>
@@ -91644,25 +91644,25 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1268" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L1268" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M1268" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91671,11 +91671,11 @@
       </c>
       <c r="O1268" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="Q1268" t="n">
         <v>18</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1269" t="n">
         <v>13</v>
@@ -91716,25 +91716,25 @@
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K1269" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L1269" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M1269" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91743,11 +91743,11 @@
       </c>
       <c r="O1269" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q1269" t="n">
         <v>18</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1270" t="n">
         <v>13</v>
@@ -91788,25 +91788,25 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1270" t="n">
         <v>160</v>
       </c>
       <c r="K1270" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1270" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1270" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91819,7 +91819,7 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1270" t="n">
         <v>18</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1271" t="n">
         <v>13</v>
@@ -91860,25 +91860,25 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1271" t="n">
         <v>70</v>
       </c>
       <c r="K1271" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1271" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1271" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91891,7 +91891,7 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q1271" t="n">
         <v>18</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1272" t="n">
         <v>13</v>
@@ -91932,25 +91932,25 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1272" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L1272" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1272" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91963,7 +91963,7 @@
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q1272" t="n">
         <v>18</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1273" t="n">
         <v>13</v>
@@ -92004,25 +92004,25 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K1273" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1273" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M1273" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q1273" t="n">
         <v>18</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1274" t="n">
         <v>13</v>
@@ -92076,25 +92076,25 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K1274" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L1274" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M1274" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92107,7 +92107,7 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q1274" t="n">
         <v>18</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1275" t="n">
         <v>13</v>
@@ -92148,25 +92148,25 @@
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1275" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L1275" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1275" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92179,7 +92179,7 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q1275" t="n">
         <v>18</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92220,25 +92220,25 @@
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1276" t="n">
         <v>70</v>
       </c>
       <c r="K1276" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L1276" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1276" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92247,11 +92247,11 @@
       </c>
       <c r="O1276" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q1276" t="n">
         <v>18</v>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1277" t="n">
         <v>13</v>
@@ -92292,25 +92292,25 @@
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1277" t="n">
         <v>50</v>
       </c>
       <c r="K1277" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1277" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1277" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92319,11 +92319,11 @@
       </c>
       <c r="O1277" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q1277" t="n">
         <v>18</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92373,16 +92373,16 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K1278" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L1278" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M1278" t="n">
-        <v>25524</v>
+        <v>20000</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>1418</v>
+        <v>1111</v>
       </c>
       <c r="Q1278" t="n">
         <v>18</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1279" t="n">
         <v>13</v>
@@ -92445,16 +92445,16 @@
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K1279" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L1279" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M1279" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92467,7 +92467,7 @@
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>1278</v>
+        <v>1000</v>
       </c>
       <c r="Q1279" t="n">
         <v>18</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1280" t="n">
         <v>13</v>
@@ -92520,13 +92520,13 @@
         <v>50</v>
       </c>
       <c r="K1280" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L1280" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M1280" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92539,7 +92539,7 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>1111</v>
+        <v>889</v>
       </c>
       <c r="Q1280" t="n">
         <v>18</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1281" t="n">
         <v>13</v>
@@ -92589,16 +92589,16 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K1281" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1281" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M1281" t="n">
-        <v>15519</v>
+        <v>13000</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92611,7 +92611,7 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>862</v>
+        <v>722</v>
       </c>
       <c r="Q1281" t="n">
         <v>18</v>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1282" t="n">
         <v>13</v>
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K1282" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L1282" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1282" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92683,7 +92683,7 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q1282" t="n">
         <v>18</v>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1283" t="n">
         <v>13</v>
@@ -92733,16 +92733,16 @@
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1283" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1283" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1283" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92755,7 +92755,7 @@
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q1283" t="n">
         <v>18</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E1284" t="n">
         <v>13</v>
@@ -92796,7 +92796,7 @@
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
@@ -92808,13 +92808,13 @@
         <v>160</v>
       </c>
       <c r="K1284" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L1284" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M1284" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92827,7 +92827,7 @@
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>1167</v>
+        <v>722</v>
       </c>
       <c r="Q1284" t="n">
         <v>18</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92868,7 +92868,7 @@
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
@@ -92880,13 +92880,13 @@
         <v>70</v>
       </c>
       <c r="K1285" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L1285" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M1285" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92899,7 +92899,7 @@
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="Q1285" t="n">
         <v>18</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92940,7 +92940,7 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
@@ -92952,13 +92952,13 @@
         <v>50</v>
       </c>
       <c r="K1286" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L1286" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M1286" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92971,7 +92971,7 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="Q1286" t="n">
         <v>18</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E1287" t="n">
         <v>13</v>
@@ -93012,7 +93012,7 @@
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1287" t="inlineStr">
@@ -93021,16 +93021,16 @@
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1287" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L1287" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1287" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93043,7 +93043,7 @@
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q1287" t="n">
         <v>18</v>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E1288" t="n">
         <v>13</v>
@@ -93084,7 +93084,7 @@
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1288" t="inlineStr">
@@ -93093,16 +93093,16 @@
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1288" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1288" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1288" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93115,7 +93115,7 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q1288" t="n">
         <v>18</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E1289" t="n">
         <v>13</v>
@@ -93156,7 +93156,7 @@
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1289" t="inlineStr">
@@ -93165,7 +93165,7 @@
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1289" t="n">
         <v>7000</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E1290" t="n">
         <v>13</v>
@@ -93228,7 +93228,7 @@
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
@@ -93237,16 +93237,16 @@
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K1290" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L1290" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M1290" t="n">
-        <v>14000</v>
+        <v>25524</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93255,11 +93255,11 @@
       </c>
       <c r="O1290" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>778</v>
+        <v>1418</v>
       </c>
       <c r="Q1290" t="n">
         <v>18</v>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E1291" t="n">
         <v>13</v>
@@ -93300,7 +93300,7 @@
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1291" t="inlineStr">
@@ -93309,16 +93309,16 @@
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K1291" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L1291" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="M1291" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93327,11 +93327,11 @@
       </c>
       <c r="O1291" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>667</v>
+        <v>1278</v>
       </c>
       <c r="Q1291" t="n">
         <v>18</v>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E1292" t="n">
         <v>13</v>
@@ -93372,7 +93372,7 @@
       </c>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1292" t="inlineStr">
@@ -93384,13 +93384,13 @@
         <v>50</v>
       </c>
       <c r="K1292" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L1292" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1292" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93399,11 +93399,11 @@
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q1292" t="n">
         <v>18</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E1293" t="n">
         <v>13</v>
@@ -93444,7 +93444,7 @@
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1293" t="inlineStr">
@@ -93453,16 +93453,16 @@
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="K1293" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1293" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M1293" t="n">
-        <v>12000</v>
+        <v>15519</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93471,11 +93471,11 @@
       </c>
       <c r="O1293" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>667</v>
+        <v>862</v>
       </c>
       <c r="Q1293" t="n">
         <v>18</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E1294" t="n">
         <v>13</v>
@@ -93516,7 +93516,7 @@
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
@@ -93525,16 +93525,16 @@
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K1294" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1294" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1294" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93543,11 +93543,11 @@
       </c>
       <c r="O1294" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q1294" t="n">
         <v>18</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44307</v>
+        <v>44217</v>
       </c>
       <c r="E1295" t="n">
         <v>13</v>
@@ -93588,7 +93588,7 @@
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
@@ -93597,16 +93597,16 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93615,11 +93615,11 @@
       </c>
       <c r="O1295" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1295" t="n">
         <v>18</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1296" t="n">
         <v>13</v>
@@ -93660,7 +93660,7 @@
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
@@ -93672,13 +93672,13 @@
         <v>160</v>
       </c>
       <c r="K1296" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L1296" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M1296" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93691,7 +93691,7 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>944</v>
+        <v>1167</v>
       </c>
       <c r="Q1296" t="n">
         <v>18</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1297" t="n">
         <v>13</v>
@@ -93732,7 +93732,7 @@
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
@@ -93744,13 +93744,13 @@
         <v>70</v>
       </c>
       <c r="K1297" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1297" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1297" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q1297" t="n">
         <v>18</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1298" t="n">
         <v>13</v>
@@ -93804,7 +93804,7 @@
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
@@ -93816,13 +93816,13 @@
         <v>50</v>
       </c>
       <c r="K1298" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L1298" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1298" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93835,7 +93835,7 @@
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="Q1298" t="n">
         <v>18</v>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1299" t="n">
         <v>13</v>
@@ -93876,7 +93876,7 @@
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1300" t="n">
         <v>13</v>
@@ -93948,7 +93948,7 @@
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
@@ -93960,13 +93960,13 @@
         <v>160</v>
       </c>
       <c r="K1300" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L1300" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1300" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q1300" t="n">
         <v>18</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1301" t="n">
         <v>13</v>
@@ -94020,7 +94020,7 @@
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
@@ -94032,13 +94032,13 @@
         <v>70</v>
       </c>
       <c r="K1301" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L1301" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1301" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94051,7 +94051,7 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q1301" t="n">
         <v>18</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1302" t="n">
         <v>13</v>
@@ -94092,7 +94092,7 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -94101,16 +94101,16 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1302" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L1302" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M1302" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94119,11 +94119,11 @@
       </c>
       <c r="O1302" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>1389</v>
+        <v>778</v>
       </c>
       <c r="Q1302" t="n">
         <v>18</v>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1303" t="n">
         <v>13</v>
@@ -94164,7 +94164,7 @@
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
@@ -94173,16 +94173,16 @@
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1303" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L1303" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="M1303" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94191,11 +94191,11 @@
       </c>
       <c r="O1303" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>1278</v>
+        <v>667</v>
       </c>
       <c r="Q1303" t="n">
         <v>18</v>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1304" t="n">
         <v>13</v>
@@ -94236,7 +94236,7 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
@@ -94245,16 +94245,16 @@
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K1304" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="L1304" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="M1304" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94263,11 +94263,11 @@
       </c>
       <c r="O1304" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="Q1304" t="n">
         <v>18</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1305" t="n">
         <v>13</v>
@@ -94308,7 +94308,7 @@
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
@@ -94320,13 +94320,13 @@
         <v>160</v>
       </c>
       <c r="K1305" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L1305" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M1305" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
@@ -94335,11 +94335,11 @@
       </c>
       <c r="O1305" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>1167</v>
+        <v>667</v>
       </c>
       <c r="Q1305" t="n">
         <v>18</v>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1306" t="n">
         <v>13</v>
@@ -94380,7 +94380,7 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
@@ -94392,13 +94392,13 @@
         <v>70</v>
       </c>
       <c r="K1306" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L1306" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M1306" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94407,11 +94407,11 @@
       </c>
       <c r="O1306" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>1056</v>
+        <v>556</v>
       </c>
       <c r="Q1306" t="n">
         <v>18</v>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1307" t="n">
         <v>13</v>
@@ -94452,7 +94452,7 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
@@ -94464,13 +94464,13 @@
         <v>50</v>
       </c>
       <c r="K1307" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L1307" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M1307" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94479,11 +94479,11 @@
       </c>
       <c r="O1307" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="Q1307" t="n">
         <v>18</v>
@@ -94524,7 +94524,7 @@
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
@@ -94533,16 +94533,16 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1308" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1308" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M1308" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q1308" t="n">
         <v>18</v>
@@ -94596,7 +94596,7 @@
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
@@ -94605,16 +94605,16 @@
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1309" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1309" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1309" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94627,7 +94627,7 @@
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1309" t="n">
         <v>18</v>
@@ -94668,7 +94668,7 @@
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1310" t="inlineStr">
@@ -94677,16 +94677,16 @@
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1310" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1310" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1310" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94699,7 +94699,7 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q1310" t="n">
         <v>18</v>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1311" t="n">
         <v>13</v>
@@ -94740,7 +94740,7 @@
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -94749,16 +94749,16 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1311" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L1311" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M1311" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94771,7 +94771,7 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q1311" t="n">
         <v>18</v>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1312" t="n">
         <v>13</v>
@@ -94812,7 +94812,7 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
@@ -94821,16 +94821,16 @@
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1312" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1312" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M1312" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94843,7 +94843,7 @@
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q1312" t="n">
         <v>18</v>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1313" t="n">
         <v>13</v>
@@ -94884,7 +94884,7 @@
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
@@ -94893,16 +94893,16 @@
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1313" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1313" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1313" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94915,7 +94915,7 @@
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q1313" t="n">
         <v>18</v>
@@ -94941,7 +94941,7 @@
         </is>
       </c>
       <c r="D1314" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1314" t="n">
         <v>13</v>
@@ -94956,7 +94956,7 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
@@ -94965,16 +94965,16 @@
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1314" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="L1314" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M1314" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94987,7 +94987,7 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>611</v>
+        <v>1389</v>
       </c>
       <c r="Q1314" t="n">
         <v>18</v>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1315" t="n">
         <v>13</v>
@@ -95028,7 +95028,7 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
@@ -95037,16 +95037,16 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1315" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="L1315" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="M1315" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95059,7 +95059,7 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>500</v>
+        <v>1278</v>
       </c>
       <c r="Q1315" t="n">
         <v>18</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1316" t="n">
         <v>13</v>
@@ -95100,7 +95100,7 @@
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
@@ -95109,16 +95109,16 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K1316" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="L1316" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="M1316" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95131,7 +95131,7 @@
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>389</v>
+        <v>1167</v>
       </c>
       <c r="Q1316" t="n">
         <v>18</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1317" t="n">
         <v>13</v>
@@ -95172,7 +95172,7 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
@@ -95184,13 +95184,13 @@
         <v>160</v>
       </c>
       <c r="K1317" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="L1317" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M1317" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95199,11 +95199,11 @@
       </c>
       <c r="O1317" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>444</v>
+        <v>1167</v>
       </c>
       <c r="Q1317" t="n">
         <v>18</v>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1318" t="n">
         <v>13</v>
@@ -95244,7 +95244,7 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -95256,13 +95256,13 @@
         <v>70</v>
       </c>
       <c r="K1318" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="L1318" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="M1318" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95271,11 +95271,11 @@
       </c>
       <c r="O1318" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>333</v>
+        <v>1056</v>
       </c>
       <c r="Q1318" t="n">
         <v>18</v>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1319" t="n">
         <v>13</v>
@@ -95316,7 +95316,7 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
@@ -95328,13 +95328,13 @@
         <v>50</v>
       </c>
       <c r="K1319" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L1319" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="M1319" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95343,11 +95343,11 @@
       </c>
       <c r="O1319" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>222</v>
+        <v>944</v>
       </c>
       <c r="Q1319" t="n">
         <v>18</v>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1320" t="n">
         <v>13</v>
@@ -95388,7 +95388,7 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
@@ -95397,32 +95397,32 @@
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1320" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="L1320" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="M1320" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1320" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>2267</v>
+        <v>722</v>
       </c>
       <c r="Q1320" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1320" t="inlineStr">
         <is>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1321" t="n">
         <v>13</v>
@@ -95460,7 +95460,7 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
@@ -95469,32 +95469,32 @@
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K1321" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="L1321" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="M1321" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1321" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>2000</v>
+        <v>611</v>
       </c>
       <c r="Q1321" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1321" t="inlineStr">
         <is>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1322" t="n">
         <v>13</v>
@@ -95532,41 +95532,41 @@
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="K1322" t="n">
-        <v>31000</v>
+        <v>9000</v>
       </c>
       <c r="L1322" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="M1322" t="n">
-        <v>31484</v>
+        <v>9000</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1322" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>2099</v>
+        <v>500</v>
       </c>
       <c r="Q1322" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1322" t="inlineStr">
         <is>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1323" t="n">
         <v>13</v>
@@ -95604,7 +95604,7 @@
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
@@ -95613,16 +95613,16 @@
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1323" t="n">
-        <v>48000</v>
+        <v>14000</v>
       </c>
       <c r="L1323" t="n">
-        <v>48000</v>
+        <v>14000</v>
       </c>
       <c r="M1323" t="n">
-        <v>48000</v>
+        <v>14000</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95635,7 +95635,7 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>2667</v>
+        <v>778</v>
       </c>
       <c r="Q1323" t="n">
         <v>18</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1324" t="n">
         <v>13</v>
@@ -95676,7 +95676,7 @@
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1324" t="inlineStr">
@@ -95685,32 +95685,32 @@
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K1324" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L1324" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="M1324" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1324" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>1867</v>
+        <v>667</v>
       </c>
       <c r="Q1324" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1324" t="inlineStr">
         <is>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1325" t="n">
         <v>13</v>
@@ -95748,25 +95748,25 @@
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1325" t="n">
         <v>50</v>
       </c>
       <c r="K1325" t="n">
-        <v>42000</v>
+        <v>10000</v>
       </c>
       <c r="L1325" t="n">
-        <v>44000</v>
+        <v>10000</v>
       </c>
       <c r="M1325" t="n">
-        <v>43200</v>
+        <v>10000</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95779,7 +95779,7 @@
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>2400</v>
+        <v>556</v>
       </c>
       <c r="Q1325" t="n">
         <v>18</v>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1326" t="n">
         <v>13</v>
@@ -95820,7 +95820,7 @@
       </c>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
@@ -95829,16 +95829,16 @@
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K1326" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L1326" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M1326" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95851,7 +95851,7 @@
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="Q1326" t="n">
         <v>18</v>
@@ -95877,7 +95877,7 @@
         </is>
       </c>
       <c r="D1327" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1327" t="n">
         <v>13</v>
@@ -95892,7 +95892,7 @@
       </c>
       <c r="H1327" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1327" t="inlineStr">
@@ -95901,16 +95901,16 @@
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K1327" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L1327" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M1327" t="n">
-        <v>15625</v>
+        <v>9000</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95923,12 +95923,876 @@
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>868</v>
+        <v>500</v>
       </c>
       <c r="Q1327" t="n">
         <v>18</v>
       </c>
       <c r="R1327" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1328" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1328" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1328" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I1328" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1328" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1328" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1328" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1328" t="n">
+        <v>389</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1328" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1329" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I1329" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1329" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1329" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1329" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1329" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1329" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1330" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I1330" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1330" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1330" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1330" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1330" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1331" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1331" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I1331" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1331" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1331" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1331" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1331" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1331" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1332" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1332" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1332" t="inlineStr">
+        <is>
+          <t>Zafiro amarillo</t>
+        </is>
+      </c>
+      <c r="I1332" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1332" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>34000</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>34000</v>
+      </c>
+      <c r="N1332" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1332" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1332" t="n">
+        <v>2267</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1332" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1333" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1333" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1333" t="inlineStr">
+        <is>
+          <t>Zafiro amarillo</t>
+        </is>
+      </c>
+      <c r="I1333" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1333" t="n">
+        <v>100</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N1333" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1333" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1333" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1333" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1334" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1334" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1334" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1334" t="n">
+        <v>310</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>32000</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>31484</v>
+      </c>
+      <c r="N1334" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1334" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1334" t="n">
+        <v>2099</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1334" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1335" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1335" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1335" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>48000</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>48000</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>48000</v>
+      </c>
+      <c r="N1335" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1335" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1335" t="n">
+        <v>2667</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1335" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1336" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1336" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1336" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1336" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1336" t="n">
+        <v>150</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N1336" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1336" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1336" t="n">
+        <v>1867</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1336" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1337" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1337" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1337" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1337" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1337" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>44000</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>43200</v>
+      </c>
+      <c r="N1337" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1337" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1337" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1337" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1338" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1338" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1338" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1338" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1338" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1338" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1338" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1338" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1338" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1339" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1339" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1339" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1339" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1339" t="n">
+        <v>80</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>15625</v>
+      </c>
+      <c r="N1339" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1339" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1339" t="n">
+        <v>868</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1339" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1339"/>
+  <dimension ref="A1:R1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -84444,41 +84444,41 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="K1168" t="n">
-        <v>49000</v>
+        <v>32000</v>
       </c>
       <c r="L1168" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="M1168" t="n">
-        <v>49500</v>
+        <v>32500</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1168" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>3300</v>
+        <v>1806</v>
       </c>
       <c r="Q1168" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -84516,41 +84516,41 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1169" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="L1169" t="n">
-        <v>47000</v>
+        <v>30000</v>
       </c>
       <c r="M1169" t="n">
-        <v>45977</v>
+        <v>29500</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>3065</v>
+        <v>1639</v>
       </c>
       <c r="Q1169" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -84588,41 +84588,41 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="K1170" t="n">
-        <v>41000</v>
+        <v>25000</v>
       </c>
       <c r="L1170" t="n">
-        <v>43000</v>
+        <v>27000</v>
       </c>
       <c r="M1170" t="n">
-        <v>42000</v>
+        <v>26000</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1170" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>2800</v>
+        <v>1444</v>
       </c>
       <c r="Q1170" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
@@ -84665,20 +84665,20 @@
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K1171" t="n">
-        <v>38000</v>
+        <v>49000</v>
       </c>
       <c r="L1171" t="n">
-        <v>39000</v>
+        <v>50000</v>
       </c>
       <c r="M1171" t="n">
-        <v>38480</v>
+        <v>49500</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>2565</v>
+        <v>3300</v>
       </c>
       <c r="Q1171" t="n">
         <v>15</v>
@@ -84732,25 +84732,25 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K1172" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="L1172" t="n">
-        <v>45000</v>
+        <v>47000</v>
       </c>
       <c r="M1172" t="n">
-        <v>44000</v>
+        <v>45977</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>2933</v>
+        <v>3065</v>
       </c>
       <c r="Q1172" t="n">
         <v>15</v>
@@ -84804,25 +84804,25 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K1173" t="n">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="L1173" t="n">
-        <v>41000</v>
+        <v>43000</v>
       </c>
       <c r="M1173" t="n">
-        <v>40492</v>
+        <v>42000</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>2699</v>
+        <v>2800</v>
       </c>
       <c r="Q1173" t="n">
         <v>15</v>
@@ -84876,25 +84876,25 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K1174" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="L1174" t="n">
-        <v>38000</v>
+        <v>39000</v>
       </c>
       <c r="M1174" t="n">
-        <v>37023</v>
+        <v>38480</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>2468</v>
+        <v>2565</v>
       </c>
       <c r="Q1174" t="n">
         <v>15</v>
@@ -84953,20 +84953,20 @@
       </c>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K1175" t="n">
-        <v>32000</v>
+        <v>43000</v>
       </c>
       <c r="L1175" t="n">
-        <v>34000</v>
+        <v>45000</v>
       </c>
       <c r="M1175" t="n">
-        <v>32960</v>
+        <v>44000</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84979,7 +84979,7 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>2197</v>
+        <v>2933</v>
       </c>
       <c r="Q1175" t="n">
         <v>15</v>
@@ -85020,25 +85020,25 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K1176" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="L1176" t="n">
-        <v>35000</v>
+        <v>41000</v>
       </c>
       <c r="M1176" t="n">
-        <v>34512</v>
+        <v>40492</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>2301</v>
+        <v>2699</v>
       </c>
       <c r="Q1176" t="n">
         <v>15</v>
@@ -85092,25 +85092,25 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="K1177" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="L1177" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="M1177" t="n">
-        <v>31000</v>
+        <v>37023</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
@@ -85123,7 +85123,7 @@
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>2067</v>
+        <v>2468</v>
       </c>
       <c r="Q1177" t="n">
         <v>15</v>
@@ -85164,25 +85164,25 @@
       </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K1178" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L1178" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M1178" t="n">
-        <v>28000</v>
+        <v>32960</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>1867</v>
+        <v>2197</v>
       </c>
       <c r="Q1178" t="n">
         <v>15</v>
@@ -85241,20 +85241,20 @@
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K1179" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L1179" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M1179" t="n">
-        <v>24500</v>
+        <v>34512</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>1633</v>
+        <v>2301</v>
       </c>
       <c r="Q1179" t="n">
         <v>15</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -85308,7 +85308,7 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
@@ -85317,32 +85317,32 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="K1180" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L1180" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M1180" t="n">
-        <v>24500</v>
+        <v>31000</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>1361</v>
+        <v>2067</v>
       </c>
       <c r="Q1180" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -85380,7 +85380,7 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
@@ -85389,32 +85389,32 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1181" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L1181" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M1181" t="n">
-        <v>22500</v>
+        <v>28000</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>1250</v>
+        <v>1867</v>
       </c>
       <c r="Q1181" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -85452,7 +85452,7 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
@@ -85461,32 +85461,32 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K1182" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L1182" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M1182" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1182" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>1111</v>
+        <v>1633</v>
       </c>
       <c r="Q1182" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1182" t="inlineStr">
         <is>
@@ -85524,7 +85524,7 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K1183" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L1183" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M1183" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>806</v>
+        <v>1361</v>
       </c>
       <c r="Q1183" t="n">
         <v>18</v>
@@ -85596,7 +85596,7 @@
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
@@ -85605,16 +85605,16 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1184" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L1184" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M1184" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>694</v>
+        <v>1250</v>
       </c>
       <c r="Q1184" t="n">
         <v>18</v>
@@ -85668,7 +85668,7 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -85677,16 +85677,16 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K1185" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L1185" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1185" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85699,7 +85699,7 @@
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q1185" t="n">
         <v>18</v>
@@ -85740,7 +85740,7 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
@@ -85749,16 +85749,16 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K1186" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1186" t="n">
         <v>15000</v>
       </c>
-      <c r="L1186" t="n">
-        <v>16000</v>
-      </c>
       <c r="M1186" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85767,11 +85767,11 @@
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q1186" t="n">
         <v>18</v>
@@ -85812,7 +85812,7 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -85821,16 +85821,16 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K1187" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1187" t="n">
         <v>13000</v>
       </c>
-      <c r="L1187" t="n">
-        <v>14000</v>
-      </c>
       <c r="M1187" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85839,11 +85839,11 @@
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>750</v>
+        <v>694</v>
       </c>
       <c r="Q1187" t="n">
         <v>18</v>
@@ -85884,7 +85884,7 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
@@ -85893,16 +85893,16 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1188" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L1188" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1188" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85911,11 +85911,11 @@
       </c>
       <c r="O1188" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q1188" t="n">
         <v>18</v>
@@ -85956,41 +85956,41 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="K1189" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L1189" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M1189" t="n">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>2000</v>
+        <v>861</v>
       </c>
       <c r="Q1189" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1189" t="inlineStr">
         <is>
@@ -86028,41 +86028,41 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1190" t="n">
         <v>80</v>
       </c>
       <c r="K1190" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="L1190" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M1190" t="n">
-        <v>27500</v>
+        <v>13500</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>1833</v>
+        <v>750</v>
       </c>
       <c r="Q1190" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
@@ -86100,41 +86100,41 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1191" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="L1191" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M1191" t="n">
-        <v>24500</v>
+        <v>11000</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1191" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>1633</v>
+        <v>611</v>
       </c>
       <c r="Q1191" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1191" t="inlineStr">
         <is>
@@ -86177,20 +86177,20 @@
       </c>
       <c r="I1192" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K1192" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L1192" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M1192" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>1467</v>
+        <v>2000</v>
       </c>
       <c r="Q1192" t="n">
         <v>15</v>
@@ -86244,25 +86244,25 @@
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K1193" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L1193" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M1193" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>1733</v>
+        <v>1833</v>
       </c>
       <c r="Q1193" t="n">
         <v>15</v>
@@ -86316,25 +86316,25 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K1194" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L1194" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M1194" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>1567</v>
+        <v>1633</v>
       </c>
       <c r="Q1194" t="n">
         <v>15</v>
@@ -86388,25 +86388,25 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K1195" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L1195" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M1195" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86419,7 +86419,7 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>1367</v>
+        <v>1467</v>
       </c>
       <c r="Q1195" t="n">
         <v>15</v>
@@ -86465,20 +86465,20 @@
       </c>
       <c r="I1196" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1196" t="n">
         <v>50</v>
       </c>
       <c r="K1196" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L1196" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M1196" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86491,7 +86491,7 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>1200</v>
+        <v>1733</v>
       </c>
       <c r="Q1196" t="n">
         <v>15</v>
@@ -86532,7 +86532,7 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
@@ -86541,16 +86541,16 @@
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="K1197" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L1197" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M1197" t="n">
-        <v>14500</v>
+        <v>23500</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>967</v>
+        <v>1567</v>
       </c>
       <c r="Q1197" t="n">
         <v>15</v>
@@ -86604,7 +86604,7 @@
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1198" t="inlineStr">
@@ -86613,16 +86613,16 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K1198" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L1198" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M1198" t="n">
-        <v>11500</v>
+        <v>20500</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86635,7 +86635,7 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>767</v>
+        <v>1367</v>
       </c>
       <c r="Q1198" t="n">
         <v>15</v>
@@ -86676,7 +86676,7 @@
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
@@ -86685,16 +86685,16 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K1199" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L1199" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M1199" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
@@ -86707,7 +86707,7 @@
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="Q1199" t="n">
         <v>15</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -86748,7 +86748,7 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
@@ -86757,32 +86757,32 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K1200" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L1200" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M1200" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="Q1200" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1200" t="inlineStr">
         <is>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -86820,7 +86820,7 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
@@ -86829,32 +86829,32 @@
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K1201" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1201" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M1201" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>861</v>
+        <v>767</v>
       </c>
       <c r="Q1201" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -86892,7 +86892,7 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
@@ -86901,32 +86901,32 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="K1202" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1202" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M1202" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="Q1202" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -86964,7 +86964,7 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -86973,32 +86973,32 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K1203" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L1203" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M1203" t="n">
-        <v>24000</v>
+        <v>17500</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1203" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>1600</v>
+        <v>972</v>
       </c>
       <c r="Q1203" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -87036,7 +87036,7 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -87045,32 +87045,32 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K1204" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L1204" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M1204" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1204" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>1333</v>
+        <v>861</v>
       </c>
       <c r="Q1204" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1204" t="inlineStr">
         <is>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -87108,41 +87108,41 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="K1205" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L1205" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M1205" t="n">
-        <v>24467</v>
+        <v>13000</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1205" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>1631</v>
+        <v>722</v>
       </c>
       <c r="Q1205" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1205" t="inlineStr">
         <is>
@@ -87180,25 +87180,25 @@
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K1206" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L1206" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M1206" t="n">
-        <v>21333</v>
+        <v>24000</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87211,7 +87211,7 @@
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>1422</v>
+        <v>1600</v>
       </c>
       <c r="Q1206" t="n">
         <v>15</v>
@@ -87252,25 +87252,25 @@
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K1207" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1207" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1207" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87283,7 +87283,7 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q1207" t="n">
         <v>15</v>
@@ -87324,7 +87324,7 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -87333,32 +87333,32 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K1208" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L1208" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M1208" t="n">
-        <v>17600</v>
+        <v>24467</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1208" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>978</v>
+        <v>1631</v>
       </c>
       <c r="Q1208" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
@@ -87396,7 +87396,7 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
@@ -87405,32 +87405,32 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K1209" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L1209" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M1209" t="n">
-        <v>15727</v>
+        <v>21333</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1209" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>874</v>
+        <v>1422</v>
       </c>
       <c r="Q1209" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1209" t="inlineStr">
         <is>
@@ -87468,7 +87468,7 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
@@ -87480,29 +87480,29 @@
         <v>60</v>
       </c>
       <c r="K1210" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L1210" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M1210" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1210" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q1210" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1210" t="inlineStr">
         <is>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -87540,41 +87540,41 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1211" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L1211" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M1211" t="n">
-        <v>30000</v>
+        <v>17600</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1211" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>2000</v>
+        <v>978</v>
       </c>
       <c r="Q1211" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1211" t="inlineStr">
         <is>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -87612,41 +87612,41 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K1212" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L1212" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M1212" t="n">
-        <v>28500</v>
+        <v>15727</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>1900</v>
+        <v>874</v>
       </c>
       <c r="Q1212" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1212" t="inlineStr">
         <is>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -87684,41 +87684,41 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K1213" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="L1213" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="M1213" t="n">
-        <v>26500</v>
+        <v>13000</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1213" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>1767</v>
+        <v>722</v>
       </c>
       <c r="Q1213" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1213" t="inlineStr">
         <is>
@@ -87756,25 +87756,25 @@
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="K1214" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L1214" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M1214" t="n">
-        <v>17500</v>
+        <v>30000</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87787,7 +87787,7 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>1167</v>
+        <v>2000</v>
       </c>
       <c r="Q1214" t="n">
         <v>15</v>
@@ -87828,25 +87828,25 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1215" t="n">
         <v>120</v>
       </c>
       <c r="K1215" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L1215" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M1215" t="n">
-        <v>15500</v>
+        <v>28500</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87859,7 +87859,7 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>1033</v>
+        <v>1900</v>
       </c>
       <c r="Q1215" t="n">
         <v>15</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -87900,25 +87900,25 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K1216" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="L1216" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M1216" t="n">
-        <v>32000</v>
+        <v>26500</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
@@ -87931,7 +87931,7 @@
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>2133</v>
+        <v>1767</v>
       </c>
       <c r="Q1216" t="n">
         <v>15</v>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -87972,7 +87972,7 @@
       </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1217" t="inlineStr">
@@ -87981,16 +87981,16 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="K1217" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L1217" t="n">
-        <v>31000</v>
+        <v>18000</v>
       </c>
       <c r="M1217" t="n">
-        <v>30500</v>
+        <v>17500</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -88003,7 +88003,7 @@
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>2033</v>
+        <v>1167</v>
       </c>
       <c r="Q1217" t="n">
         <v>15</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -88044,7 +88044,7 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -88053,16 +88053,16 @@
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="K1218" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L1218" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M1218" t="n">
-        <v>28512</v>
+        <v>15500</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88075,7 +88075,7 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>1901</v>
+        <v>1033</v>
       </c>
       <c r="Q1218" t="n">
         <v>15</v>
@@ -88121,20 +88121,20 @@
       </c>
       <c r="I1219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K1219" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L1219" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M1219" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88147,7 +88147,7 @@
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>1800</v>
+        <v>2133</v>
       </c>
       <c r="Q1219" t="n">
         <v>15</v>
@@ -88188,25 +88188,25 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1220" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L1220" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M1220" t="n">
-        <v>17500</v>
+        <v>30500</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88219,7 +88219,7 @@
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>1167</v>
+        <v>2033</v>
       </c>
       <c r="Q1220" t="n">
         <v>15</v>
@@ -88260,25 +88260,25 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K1221" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L1221" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M1221" t="n">
-        <v>15500</v>
+        <v>28512</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88291,7 +88291,7 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>1033</v>
+        <v>1901</v>
       </c>
       <c r="Q1221" t="n">
         <v>15</v>
@@ -88332,25 +88332,25 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="K1222" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="L1222" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M1222" t="n">
-        <v>13495</v>
+        <v>27000</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="Q1222" t="n">
         <v>15</v>
@@ -88409,20 +88409,20 @@
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K1223" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L1223" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M1223" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
@@ -88435,7 +88435,7 @@
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="Q1223" t="n">
         <v>15</v>
@@ -88476,25 +88476,25 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K1224" t="n">
         <v>15000</v>
       </c>
       <c r="L1224" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M1224" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
@@ -88507,7 +88507,7 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="Q1224" t="n">
         <v>15</v>
@@ -88548,16 +88548,16 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K1225" t="n">
         <v>13000</v>
@@ -88566,7 +88566,7 @@
         <v>14000</v>
       </c>
       <c r="M1225" t="n">
-        <v>13500</v>
+        <v>13495</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88620,25 +88620,25 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1226" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1226" t="n">
         <v>12000</v>
       </c>
       <c r="M1226" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88651,7 +88651,7 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>767</v>
+        <v>800</v>
       </c>
       <c r="Q1226" t="n">
         <v>15</v>
@@ -88697,20 +88697,20 @@
       </c>
       <c r="I1227" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K1227" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1227" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1227" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q1227" t="n">
         <v>15</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -88764,7 +88764,7 @@
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1228" t="inlineStr">
@@ -88773,32 +88773,32 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1228" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L1228" t="n">
         <v>14000</v>
       </c>
       <c r="M1228" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1228" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>778</v>
+        <v>900</v>
       </c>
       <c r="Q1228" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1228" t="inlineStr">
         <is>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -88836,7 +88836,7 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1229" t="inlineStr">
@@ -88845,32 +88845,32 @@
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1229" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1229" t="n">
         <v>12000</v>
       </c>
       <c r="M1229" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1229" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>667</v>
+        <v>767</v>
       </c>
       <c r="Q1229" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1229" t="inlineStr">
         <is>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1230" t="n">
         <v>13</v>
@@ -88908,7 +88908,7 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
@@ -88917,7 +88917,7 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="K1230" t="n">
         <v>10000</v>
@@ -88930,19 +88930,19 @@
       </c>
       <c r="N1230" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1230" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1230" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1230" t="inlineStr">
         <is>
@@ -88980,7 +88980,7 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -88989,16 +88989,16 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1231" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1231" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1231" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89011,7 +89011,7 @@
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q1231" t="n">
         <v>18</v>
@@ -89052,7 +89052,7 @@
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
@@ -89061,16 +89061,16 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1232" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1232" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1232" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89083,7 +89083,7 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1232" t="n">
         <v>18</v>
@@ -89124,7 +89124,7 @@
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1233" t="inlineStr">
@@ -89133,16 +89133,16 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89155,7 +89155,7 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1233" t="n">
         <v>18</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1234" t="n">
         <v>13</v>
@@ -89196,41 +89196,41 @@
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1234" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="K1234" t="n">
-        <v>49000</v>
+        <v>12000</v>
       </c>
       <c r="L1234" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="M1234" t="n">
-        <v>49500</v>
+        <v>12000</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1234" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>3300</v>
+        <v>667</v>
       </c>
       <c r="Q1234" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1234" t="inlineStr">
         <is>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89268,41 +89268,41 @@
       </c>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1235" t="n">
-        <v>47000</v>
+        <v>10000</v>
       </c>
       <c r="L1235" t="n">
-        <v>48000</v>
+        <v>10000</v>
       </c>
       <c r="M1235" t="n">
-        <v>47512</v>
+        <v>10000</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1235" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>3167</v>
+        <v>556</v>
       </c>
       <c r="Q1235" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1235" t="inlineStr">
         <is>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89340,41 +89340,41 @@
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K1236" t="n">
-        <v>45000</v>
+        <v>8000</v>
       </c>
       <c r="L1236" t="n">
-        <v>46000</v>
+        <v>8000</v>
       </c>
       <c r="M1236" t="n">
-        <v>45500</v>
+        <v>8000</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>3033</v>
+        <v>444</v>
       </c>
       <c r="Q1236" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1236" t="inlineStr">
         <is>
@@ -89417,20 +89417,20 @@
       </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K1237" t="n">
-        <v>43000</v>
+        <v>49000</v>
       </c>
       <c r="L1237" t="n">
-        <v>44000</v>
+        <v>50000</v>
       </c>
       <c r="M1237" t="n">
-        <v>43476</v>
+        <v>49500</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89443,7 +89443,7 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>2898</v>
+        <v>3300</v>
       </c>
       <c r="Q1237" t="n">
         <v>15</v>
@@ -89484,25 +89484,25 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K1238" t="n">
-        <v>45000</v>
+        <v>47000</v>
       </c>
       <c r="L1238" t="n">
-        <v>46000</v>
+        <v>48000</v>
       </c>
       <c r="M1238" t="n">
-        <v>45480</v>
+        <v>47512</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>3032</v>
+        <v>3167</v>
       </c>
       <c r="Q1238" t="n">
         <v>15</v>
@@ -89556,25 +89556,25 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="K1239" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="L1239" t="n">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="M1239" t="n">
-        <v>43506</v>
+        <v>45500</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>2900</v>
+        <v>3033</v>
       </c>
       <c r="Q1239" t="n">
         <v>15</v>
@@ -89628,25 +89628,25 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K1240" t="n">
-        <v>41000</v>
+        <v>43000</v>
       </c>
       <c r="L1240" t="n">
-        <v>42000</v>
+        <v>44000</v>
       </c>
       <c r="M1240" t="n">
-        <v>41492</v>
+        <v>43476</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89659,7 +89659,7 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>2766</v>
+        <v>2898</v>
       </c>
       <c r="Q1240" t="n">
         <v>15</v>
@@ -89705,20 +89705,20 @@
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K1241" t="n">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="L1241" t="n">
-        <v>40000</v>
+        <v>46000</v>
       </c>
       <c r="M1241" t="n">
-        <v>39512</v>
+        <v>45480</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89731,7 +89731,7 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>2634</v>
+        <v>3032</v>
       </c>
       <c r="Q1241" t="n">
         <v>15</v>
@@ -89772,25 +89772,25 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1242" t="n">
-        <v>39000</v>
+        <v>43000</v>
       </c>
       <c r="L1242" t="n">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="M1242" t="n">
-        <v>39512</v>
+        <v>43506</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89803,7 +89803,7 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>2634</v>
+        <v>2900</v>
       </c>
       <c r="Q1242" t="n">
         <v>15</v>
@@ -89844,25 +89844,25 @@
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="K1243" t="n">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="L1243" t="n">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="M1243" t="n">
-        <v>37496</v>
+        <v>41492</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>2500</v>
+        <v>2766</v>
       </c>
       <c r="Q1243" t="n">
         <v>15</v>
@@ -89916,25 +89916,25 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="K1244" t="n">
-        <v>35000</v>
+        <v>39000</v>
       </c>
       <c r="L1244" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="M1244" t="n">
-        <v>35494</v>
+        <v>39512</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>2366</v>
+        <v>2634</v>
       </c>
       <c r="Q1244" t="n">
         <v>15</v>
@@ -89993,20 +89993,20 @@
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K1245" t="n">
-        <v>33000</v>
+        <v>39000</v>
       </c>
       <c r="L1245" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="M1245" t="n">
-        <v>33492</v>
+        <v>39512</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>2233</v>
+        <v>2634</v>
       </c>
       <c r="Q1245" t="n">
         <v>15</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E1246" t="n">
         <v>13</v>
@@ -90069,32 +90069,32 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K1246" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="L1246" t="n">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="M1246" t="n">
-        <v>16000</v>
+        <v>37496</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1246" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>889</v>
+        <v>2500</v>
       </c>
       <c r="Q1246" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1246" t="inlineStr">
         <is>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90141,32 +90141,32 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1247" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="L1247" t="n">
-        <v>14000</v>
+        <v>36000</v>
       </c>
       <c r="M1247" t="n">
-        <v>14000</v>
+        <v>35494</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1247" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>778</v>
+        <v>2366</v>
       </c>
       <c r="Q1247" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1247" t="inlineStr">
         <is>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90204,25 +90204,25 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="K1248" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="L1248" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="M1248" t="n">
-        <v>40000</v>
+        <v>33492</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>2667</v>
+        <v>2233</v>
       </c>
       <c r="Q1248" t="n">
         <v>15</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1249" t="n">
         <v>13</v>
@@ -90276,41 +90276,41 @@
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="K1249" t="n">
-        <v>37000</v>
+        <v>16000</v>
       </c>
       <c r="L1249" t="n">
-        <v>37000</v>
+        <v>16000</v>
       </c>
       <c r="M1249" t="n">
-        <v>37000</v>
+        <v>16000</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1249" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>2467</v>
+        <v>889</v>
       </c>
       <c r="Q1249" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1249" t="inlineStr">
         <is>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1250" t="n">
         <v>13</v>
@@ -90353,36 +90353,36 @@
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K1250" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="L1250" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M1250" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1250" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>2333</v>
+        <v>778</v>
       </c>
       <c r="Q1250" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1250" t="inlineStr">
         <is>
@@ -90420,25 +90420,25 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K1251" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L1251" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M1251" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>2000</v>
+        <v>2667</v>
       </c>
       <c r="Q1251" t="n">
         <v>15</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1252" t="n">
         <v>13</v>
@@ -90492,25 +90492,25 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K1252" t="n">
-        <v>45000</v>
+        <v>37000</v>
       </c>
       <c r="L1252" t="n">
-        <v>46000</v>
+        <v>37000</v>
       </c>
       <c r="M1252" t="n">
-        <v>45429</v>
+        <v>37000</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>3029</v>
+        <v>2467</v>
       </c>
       <c r="Q1252" t="n">
         <v>15</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1253" t="n">
         <v>13</v>
@@ -90564,7 +90564,7 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
@@ -90573,16 +90573,16 @@
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K1253" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="L1253" t="n">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="M1253" t="n">
-        <v>43500</v>
+        <v>35000</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90595,7 +90595,7 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>2900</v>
+        <v>2333</v>
       </c>
       <c r="Q1253" t="n">
         <v>15</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90636,7 +90636,7 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -90645,16 +90645,16 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K1254" t="n">
-        <v>41000</v>
+        <v>30000</v>
       </c>
       <c r="L1254" t="n">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="M1254" t="n">
-        <v>41480</v>
+        <v>30000</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>2765</v>
+        <v>2000</v>
       </c>
       <c r="Q1254" t="n">
         <v>15</v>
@@ -90713,20 +90713,20 @@
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K1255" t="n">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="L1255" t="n">
-        <v>40000</v>
+        <v>46000</v>
       </c>
       <c r="M1255" t="n">
-        <v>39500</v>
+        <v>45429</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>2633</v>
+        <v>3029</v>
       </c>
       <c r="Q1255" t="n">
         <v>15</v>
@@ -90780,25 +90780,25 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K1256" t="n">
+        <v>43000</v>
+      </c>
+      <c r="L1256" t="n">
         <v>44000</v>
       </c>
-      <c r="L1256" t="n">
-        <v>45000</v>
-      </c>
       <c r="M1256" t="n">
-        <v>44500</v>
+        <v>43500</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>2967</v>
+        <v>2900</v>
       </c>
       <c r="Q1256" t="n">
         <v>15</v>
@@ -90852,25 +90852,25 @@
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K1257" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L1257" t="n">
         <v>42000</v>
       </c>
-      <c r="L1257" t="n">
-        <v>43000</v>
-      </c>
       <c r="M1257" t="n">
-        <v>42488</v>
+        <v>41480</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>2833</v>
+        <v>2765</v>
       </c>
       <c r="Q1257" t="n">
         <v>15</v>
@@ -90924,25 +90924,25 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K1258" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L1258" t="n">
         <v>40000</v>
       </c>
-      <c r="L1258" t="n">
-        <v>41000</v>
-      </c>
       <c r="M1258" t="n">
-        <v>40500</v>
+        <v>39500</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>2700</v>
+        <v>2633</v>
       </c>
       <c r="Q1258" t="n">
         <v>15</v>
@@ -91001,20 +91001,20 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K1259" t="n">
-        <v>38000</v>
+        <v>44000</v>
       </c>
       <c r="L1259" t="n">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="M1259" t="n">
-        <v>38480</v>
+        <v>44500</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>2565</v>
+        <v>2967</v>
       </c>
       <c r="Q1259" t="n">
         <v>15</v>
@@ -91068,25 +91068,25 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K1260" t="n">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="L1260" t="n">
-        <v>37000</v>
+        <v>43000</v>
       </c>
       <c r="M1260" t="n">
-        <v>36480</v>
+        <v>42488</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>2432</v>
+        <v>2833</v>
       </c>
       <c r="Q1260" t="n">
         <v>15</v>
@@ -91140,25 +91140,25 @@
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="K1261" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="L1261" t="n">
-        <v>35000</v>
+        <v>41000</v>
       </c>
       <c r="M1261" t="n">
-        <v>34500</v>
+        <v>40500</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q1261" t="n">
         <v>15</v>
@@ -91212,25 +91212,25 @@
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="K1262" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="L1262" t="n">
-        <v>33000</v>
+        <v>39000</v>
       </c>
       <c r="M1262" t="n">
-        <v>32494</v>
+        <v>38480</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91243,7 +91243,7 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>2166</v>
+        <v>2565</v>
       </c>
       <c r="Q1262" t="n">
         <v>15</v>
@@ -91289,20 +91289,20 @@
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K1263" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="L1263" t="n">
-        <v>31000</v>
+        <v>37000</v>
       </c>
       <c r="M1263" t="n">
-        <v>30500</v>
+        <v>36480</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91315,7 +91315,7 @@
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>2033</v>
+        <v>2432</v>
       </c>
       <c r="Q1263" t="n">
         <v>15</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1264" t="n">
         <v>13</v>
@@ -91356,7 +91356,7 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
@@ -91365,32 +91365,32 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K1264" t="n">
-        <v>13000</v>
+        <v>34000</v>
       </c>
       <c r="L1264" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="M1264" t="n">
-        <v>13000</v>
+        <v>34500</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1264" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>722</v>
+        <v>2300</v>
       </c>
       <c r="Q1264" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1264" t="inlineStr">
         <is>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91428,7 +91428,7 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -91437,32 +91437,32 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K1265" t="n">
-        <v>11000</v>
+        <v>32000</v>
       </c>
       <c r="L1265" t="n">
-        <v>11000</v>
+        <v>33000</v>
       </c>
       <c r="M1265" t="n">
-        <v>11000</v>
+        <v>32494</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>611</v>
+        <v>2166</v>
       </c>
       <c r="Q1265" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1265" t="inlineStr">
         <is>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1266" t="n">
         <v>13</v>
@@ -91500,7 +91500,7 @@
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
@@ -91509,32 +91509,32 @@
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1266" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="L1266" t="n">
-        <v>9000</v>
+        <v>31000</v>
       </c>
       <c r="M1266" t="n">
-        <v>9000</v>
+        <v>30500</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>500</v>
+        <v>2033</v>
       </c>
       <c r="Q1266" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1266" t="inlineStr">
         <is>
@@ -91572,7 +91572,7 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
@@ -91584,13 +91584,13 @@
         <v>160</v>
       </c>
       <c r="K1267" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1267" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1267" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91603,7 +91603,7 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1267" t="n">
         <v>18</v>
@@ -91644,7 +91644,7 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -91656,13 +91656,13 @@
         <v>70</v>
       </c>
       <c r="K1268" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1268" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1268" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91675,7 +91675,7 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1268" t="n">
         <v>18</v>
@@ -91716,7 +91716,7 @@
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
@@ -91728,13 +91728,13 @@
         <v>50</v>
       </c>
       <c r="K1269" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1269" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1269" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91747,7 +91747,7 @@
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q1269" t="n">
         <v>18</v>
@@ -91788,7 +91788,7 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
@@ -91800,13 +91800,13 @@
         <v>160</v>
       </c>
       <c r="K1270" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1270" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M1270" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91815,11 +91815,11 @@
       </c>
       <c r="O1270" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q1270" t="n">
         <v>18</v>
@@ -91860,7 +91860,7 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
@@ -91872,13 +91872,13 @@
         <v>70</v>
       </c>
       <c r="K1271" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1271" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M1271" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91887,11 +91887,11 @@
       </c>
       <c r="O1271" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q1271" t="n">
         <v>18</v>
@@ -91932,7 +91932,7 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
@@ -91944,13 +91944,13 @@
         <v>50</v>
       </c>
       <c r="K1272" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L1272" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1272" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91959,11 +91959,11 @@
       </c>
       <c r="O1272" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q1272" t="n">
         <v>18</v>
@@ -92004,7 +92004,7 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
@@ -92013,16 +92013,16 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K1273" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1273" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1273" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q1273" t="n">
         <v>18</v>
@@ -92076,7 +92076,7 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
@@ -92085,16 +92085,16 @@
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1274" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1274" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1274" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92107,7 +92107,7 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q1274" t="n">
         <v>18</v>
@@ -92148,7 +92148,7 @@
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1275" t="inlineStr">
@@ -92157,16 +92157,16 @@
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1275" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1275" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1275" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92179,7 +92179,7 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1275" t="n">
         <v>18</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92220,7 +92220,7 @@
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1276" t="inlineStr">
@@ -92229,7 +92229,7 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K1276" t="n">
         <v>12000</v>
@@ -92247,7 +92247,7 @@
       </c>
       <c r="O1276" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1276" t="n">
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1277" t="n">
         <v>13</v>
@@ -92292,7 +92292,7 @@
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
@@ -92301,7 +92301,7 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K1277" t="n">
         <v>10000</v>
@@ -92319,7 +92319,7 @@
       </c>
       <c r="O1277" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1277" t="n">
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92364,25 +92364,25 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1278" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L1278" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M1278" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>1111</v>
+        <v>444</v>
       </c>
       <c r="Q1278" t="n">
         <v>18</v>
@@ -92436,25 +92436,25 @@
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1279" t="n">
         <v>70</v>
       </c>
       <c r="K1279" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1279" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M1279" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92463,11 +92463,11 @@
       </c>
       <c r="O1279" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q1279" t="n">
         <v>18</v>
@@ -92508,25 +92508,25 @@
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1280" t="n">
         <v>50</v>
       </c>
       <c r="K1280" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1280" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1280" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92535,11 +92535,11 @@
       </c>
       <c r="O1280" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="Q1280" t="n">
         <v>18</v>
@@ -92580,7 +92580,7 @@
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
@@ -92589,16 +92589,16 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1281" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L1281" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M1281" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92611,7 +92611,7 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q1281" t="n">
         <v>18</v>
@@ -92652,7 +92652,7 @@
       </c>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1282" t="inlineStr">
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1282" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L1282" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M1282" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92683,7 +92683,7 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="Q1282" t="n">
         <v>18</v>
@@ -92724,7 +92724,7 @@
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1283" t="inlineStr">
@@ -92733,16 +92733,16 @@
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1283" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L1283" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M1283" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92755,7 +92755,7 @@
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="Q1283" t="n">
         <v>18</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1284" t="n">
         <v>13</v>
@@ -92796,7 +92796,7 @@
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
@@ -92805,7 +92805,7 @@
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1284" t="n">
         <v>13000</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92868,7 +92868,7 @@
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
@@ -92877,7 +92877,7 @@
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1285" t="n">
         <v>11000</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92940,7 +92940,7 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
@@ -92949,7 +92949,7 @@
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1286" t="n">
         <v>9000</v>
@@ -93012,7 +93012,7 @@
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1287" t="inlineStr">
@@ -93024,13 +93024,13 @@
         <v>160</v>
       </c>
       <c r="K1287" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1287" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1287" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93043,7 +93043,7 @@
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1287" t="n">
         <v>18</v>
@@ -93084,7 +93084,7 @@
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1288" t="inlineStr">
@@ -93096,13 +93096,13 @@
         <v>70</v>
       </c>
       <c r="K1288" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1288" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1288" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93115,7 +93115,7 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1288" t="n">
         <v>18</v>
@@ -93156,7 +93156,7 @@
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1289" t="inlineStr">
@@ -93168,13 +93168,13 @@
         <v>50</v>
       </c>
       <c r="K1289" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1289" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1289" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93187,7 +93187,7 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q1289" t="n">
         <v>18</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1290" t="n">
         <v>13</v>
@@ -93228,7 +93228,7 @@
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
@@ -93237,16 +93237,16 @@
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K1290" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="L1290" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="M1290" t="n">
-        <v>25524</v>
+        <v>11000</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93259,7 +93259,7 @@
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>1418</v>
+        <v>611</v>
       </c>
       <c r="Q1290" t="n">
         <v>18</v>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1291" t="n">
         <v>13</v>
@@ -93300,7 +93300,7 @@
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1291" t="inlineStr">
@@ -93309,16 +93309,16 @@
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K1291" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="L1291" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M1291" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93331,7 +93331,7 @@
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>1278</v>
+        <v>500</v>
       </c>
       <c r="Q1291" t="n">
         <v>18</v>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1292" t="n">
         <v>13</v>
@@ -93372,7 +93372,7 @@
       </c>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1292" t="inlineStr">
@@ -93384,13 +93384,13 @@
         <v>50</v>
       </c>
       <c r="K1292" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L1292" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M1292" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93403,7 +93403,7 @@
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>1111</v>
+        <v>389</v>
       </c>
       <c r="Q1292" t="n">
         <v>18</v>
@@ -93444,7 +93444,7 @@
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1293" t="inlineStr">
@@ -93453,16 +93453,16 @@
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="K1293" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L1293" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="M1293" t="n">
-        <v>15519</v>
+        <v>25524</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>862</v>
+        <v>1418</v>
       </c>
       <c r="Q1293" t="n">
         <v>18</v>
@@ -93516,7 +93516,7 @@
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
@@ -93525,16 +93525,16 @@
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K1294" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L1294" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M1294" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93547,7 +93547,7 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>722</v>
+        <v>1278</v>
       </c>
       <c r="Q1294" t="n">
         <v>18</v>
@@ -93588,7 +93588,7 @@
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
@@ -93597,16 +93597,16 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1295" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L1295" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1295" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93619,7 +93619,7 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q1295" t="n">
         <v>18</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E1296" t="n">
         <v>13</v>
@@ -93660,7 +93660,7 @@
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
@@ -93669,16 +93669,16 @@
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="K1296" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L1296" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M1296" t="n">
-        <v>21000</v>
+        <v>15519</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93691,7 +93691,7 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>1167</v>
+        <v>862</v>
       </c>
       <c r="Q1296" t="n">
         <v>18</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E1297" t="n">
         <v>13</v>
@@ -93732,7 +93732,7 @@
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
@@ -93741,16 +93741,16 @@
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K1297" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L1297" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M1297" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="Q1297" t="n">
         <v>18</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E1298" t="n">
         <v>13</v>
@@ -93804,7 +93804,7 @@
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
@@ -93813,16 +93813,16 @@
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1298" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1298" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1298" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93835,7 +93835,7 @@
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="Q1298" t="n">
         <v>18</v>
@@ -93876,7 +93876,7 @@
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
@@ -93885,16 +93885,16 @@
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1299" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="L1299" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M1299" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93907,7 +93907,7 @@
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>722</v>
+        <v>1167</v>
       </c>
       <c r="Q1299" t="n">
         <v>18</v>
@@ -93948,7 +93948,7 @@
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
@@ -93957,16 +93957,16 @@
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1300" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L1300" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M1300" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q1300" t="n">
         <v>18</v>
@@ -94020,7 +94020,7 @@
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
@@ -94029,16 +94029,16 @@
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1301" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L1301" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M1301" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94051,7 +94051,7 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>389</v>
+        <v>889</v>
       </c>
       <c r="Q1301" t="n">
         <v>18</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1302" t="n">
         <v>13</v>
@@ -94092,7 +94092,7 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -94101,16 +94101,16 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1302" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L1302" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M1302" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94119,11 +94119,11 @@
       </c>
       <c r="O1302" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q1302" t="n">
         <v>18</v>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1303" t="n">
         <v>13</v>
@@ -94164,7 +94164,7 @@
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
@@ -94173,16 +94173,16 @@
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1303" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1303" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1303" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94191,11 +94191,11 @@
       </c>
       <c r="O1303" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q1303" t="n">
         <v>18</v>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1304" t="n">
         <v>13</v>
@@ -94236,7 +94236,7 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
@@ -94245,16 +94245,16 @@
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1304" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1304" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M1304" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94263,11 +94263,11 @@
       </c>
       <c r="O1304" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q1304" t="n">
         <v>18</v>
@@ -94308,7 +94308,7 @@
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
@@ -94320,13 +94320,13 @@
         <v>160</v>
       </c>
       <c r="K1305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1305" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
@@ -94339,7 +94339,7 @@
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q1305" t="n">
         <v>18</v>
@@ -94380,7 +94380,7 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
@@ -94392,13 +94392,13 @@
         <v>70</v>
       </c>
       <c r="K1306" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1306" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1306" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94411,7 +94411,7 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1306" t="n">
         <v>18</v>
@@ -94452,7 +94452,7 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
@@ -94464,13 +94464,13 @@
         <v>50</v>
       </c>
       <c r="K1307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94483,7 +94483,7 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1307" t="n">
         <v>18</v>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1308" t="n">
         <v>13</v>
@@ -94524,7 +94524,7 @@
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
@@ -94536,13 +94536,13 @@
         <v>160</v>
       </c>
       <c r="K1308" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1308" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M1308" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94551,11 +94551,11 @@
       </c>
       <c r="O1308" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q1308" t="n">
         <v>18</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1309" t="n">
         <v>13</v>
@@ -94596,7 +94596,7 @@
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
@@ -94608,13 +94608,13 @@
         <v>70</v>
       </c>
       <c r="K1309" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1309" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1309" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94623,11 +94623,11 @@
       </c>
       <c r="O1309" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q1309" t="n">
         <v>18</v>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1310" t="n">
         <v>13</v>
@@ -94668,7 +94668,7 @@
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1310" t="inlineStr">
@@ -94680,13 +94680,13 @@
         <v>50</v>
       </c>
       <c r="K1310" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1310" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1310" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94695,11 +94695,11 @@
       </c>
       <c r="O1310" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q1310" t="n">
         <v>18</v>
@@ -94740,7 +94740,7 @@
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -94749,16 +94749,16 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1311" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1311" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M1311" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94771,7 +94771,7 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q1311" t="n">
         <v>18</v>
@@ -94812,7 +94812,7 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
@@ -94821,16 +94821,16 @@
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1312" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1312" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1312" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94843,7 +94843,7 @@
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1312" t="n">
         <v>18</v>
@@ -94884,7 +94884,7 @@
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
@@ -94893,16 +94893,16 @@
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1313" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1313" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1313" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94915,7 +94915,7 @@
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q1313" t="n">
         <v>18</v>
@@ -94956,7 +94956,7 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
@@ -94965,16 +94965,16 @@
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1314" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L1314" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M1314" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94987,7 +94987,7 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>1389</v>
+        <v>722</v>
       </c>
       <c r="Q1314" t="n">
         <v>18</v>
@@ -95028,7 +95028,7 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
@@ -95037,16 +95037,16 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K1315" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L1315" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M1315" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95059,7 +95059,7 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>1278</v>
+        <v>611</v>
       </c>
       <c r="Q1315" t="n">
         <v>18</v>
@@ -95100,7 +95100,7 @@
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
@@ -95109,16 +95109,16 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K1316" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L1316" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M1316" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95131,7 +95131,7 @@
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>1167</v>
+        <v>500</v>
       </c>
       <c r="Q1316" t="n">
         <v>18</v>
@@ -95172,7 +95172,7 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
@@ -95181,16 +95181,16 @@
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1317" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L1317" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M1317" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95203,7 +95203,7 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>1167</v>
+        <v>1389</v>
       </c>
       <c r="Q1317" t="n">
         <v>18</v>
@@ -95244,7 +95244,7 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -95253,16 +95253,16 @@
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1318" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L1318" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="M1318" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95275,7 +95275,7 @@
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>1056</v>
+        <v>1278</v>
       </c>
       <c r="Q1318" t="n">
         <v>18</v>
@@ -95316,7 +95316,7 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
@@ -95325,16 +95325,16 @@
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K1319" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L1319" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M1319" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95347,7 +95347,7 @@
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>944</v>
+        <v>1167</v>
       </c>
       <c r="Q1319" t="n">
         <v>18</v>
@@ -95388,7 +95388,7 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
@@ -95397,16 +95397,16 @@
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1320" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="L1320" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M1320" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95419,7 +95419,7 @@
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>722</v>
+        <v>1167</v>
       </c>
       <c r="Q1320" t="n">
         <v>18</v>
@@ -95460,7 +95460,7 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
@@ -95469,16 +95469,16 @@
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1321" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L1321" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M1321" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95491,7 +95491,7 @@
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>611</v>
+        <v>1056</v>
       </c>
       <c r="Q1321" t="n">
         <v>18</v>
@@ -95532,7 +95532,7 @@
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1322" t="inlineStr">
@@ -95541,16 +95541,16 @@
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1322" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L1322" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M1322" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95563,7 +95563,7 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>500</v>
+        <v>944</v>
       </c>
       <c r="Q1322" t="n">
         <v>18</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1323" t="n">
         <v>13</v>
@@ -95604,7 +95604,7 @@
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
@@ -95613,16 +95613,16 @@
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1323" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L1323" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M1323" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95635,7 +95635,7 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q1323" t="n">
         <v>18</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1324" t="n">
         <v>13</v>
@@ -95676,7 +95676,7 @@
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1324" t="inlineStr">
@@ -95685,16 +95685,16 @@
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1324" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1324" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M1324" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95707,7 +95707,7 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q1324" t="n">
         <v>18</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1325" t="n">
         <v>13</v>
@@ -95748,7 +95748,7 @@
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1325" t="inlineStr">
@@ -95757,16 +95757,16 @@
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1325" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1325" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1325" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95779,7 +95779,7 @@
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q1325" t="n">
         <v>18</v>
@@ -95820,7 +95820,7 @@
       </c>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
@@ -95832,13 +95832,13 @@
         <v>160</v>
       </c>
       <c r="K1326" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L1326" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M1326" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95851,7 +95851,7 @@
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q1326" t="n">
         <v>18</v>
@@ -95892,7 +95892,7 @@
       </c>
       <c r="H1327" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1327" t="inlineStr">
@@ -95904,13 +95904,13 @@
         <v>70</v>
       </c>
       <c r="K1327" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L1327" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1327" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95923,7 +95923,7 @@
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q1327" t="n">
         <v>18</v>
@@ -95964,7 +95964,7 @@
       </c>
       <c r="H1328" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1328" t="inlineStr">
@@ -95976,13 +95976,13 @@
         <v>50</v>
       </c>
       <c r="K1328" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1328" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1328" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95995,7 +95995,7 @@
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q1328" t="n">
         <v>18</v>
@@ -96036,7 +96036,7 @@
       </c>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
@@ -96048,13 +96048,13 @@
         <v>160</v>
       </c>
       <c r="K1329" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1329" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1329" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
@@ -96063,11 +96063,11 @@
       </c>
       <c r="O1329" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1329" t="n">
         <v>18</v>
@@ -96108,7 +96108,7 @@
       </c>
       <c r="H1330" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1330" t="inlineStr">
@@ -96120,13 +96120,13 @@
         <v>70</v>
       </c>
       <c r="K1330" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1330" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1330" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
@@ -96135,11 +96135,11 @@
       </c>
       <c r="O1330" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1330" t="n">
         <v>18</v>
@@ -96180,7 +96180,7 @@
       </c>
       <c r="H1331" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1331" t="inlineStr">
@@ -96192,13 +96192,13 @@
         <v>50</v>
       </c>
       <c r="K1331" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1331" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1331" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
@@ -96207,11 +96207,11 @@
       </c>
       <c r="O1331" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="Q1331" t="n">
         <v>18</v>
@@ -96237,7 +96237,7 @@
         </is>
       </c>
       <c r="D1332" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1332" t="n">
         <v>13</v>
@@ -96252,7 +96252,7 @@
       </c>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
@@ -96264,29 +96264,29 @@
         <v>160</v>
       </c>
       <c r="K1332" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="L1332" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="M1332" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1332" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>2267</v>
+        <v>444</v>
       </c>
       <c r="Q1332" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1332" t="inlineStr">
         <is>
@@ -96309,7 +96309,7 @@
         </is>
       </c>
       <c r="D1333" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1333" t="n">
         <v>13</v>
@@ -96324,7 +96324,7 @@
       </c>
       <c r="H1333" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1333" t="inlineStr">
@@ -96333,32 +96333,32 @@
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K1333" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="L1333" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M1333" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="N1333" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1333" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1333" t="n">
-        <v>2000</v>
+        <v>333</v>
       </c>
       <c r="Q1333" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1333" t="inlineStr">
         <is>
@@ -96381,7 +96381,7 @@
         </is>
       </c>
       <c r="D1334" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1334" t="n">
         <v>13</v>
@@ -96396,41 +96396,41 @@
       </c>
       <c r="H1334" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1334" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="K1334" t="n">
-        <v>31000</v>
+        <v>4000</v>
       </c>
       <c r="L1334" t="n">
-        <v>32000</v>
+        <v>4000</v>
       </c>
       <c r="M1334" t="n">
-        <v>31484</v>
+        <v>4000</v>
       </c>
       <c r="N1334" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1334" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1334" t="n">
-        <v>2099</v>
+        <v>222</v>
       </c>
       <c r="Q1334" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1334" t="inlineStr">
         <is>
@@ -96468,7 +96468,7 @@
       </c>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1335" t="inlineStr">
@@ -96477,32 +96477,32 @@
         </is>
       </c>
       <c r="J1335" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1335" t="n">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="L1335" t="n">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="M1335" t="n">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="N1335" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1335" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1335" t="n">
-        <v>2667</v>
+        <v>2267</v>
       </c>
       <c r="Q1335" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1335" t="inlineStr">
         <is>
@@ -96540,7 +96540,7 @@
       </c>
       <c r="H1336" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1336" t="inlineStr">
@@ -96549,16 +96549,16 @@
         </is>
       </c>
       <c r="J1336" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K1336" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L1336" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M1336" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N1336" t="inlineStr">
         <is>
@@ -96571,7 +96571,7 @@
         </is>
       </c>
       <c r="P1336" t="n">
-        <v>1867</v>
+        <v>2000</v>
       </c>
       <c r="Q1336" t="n">
         <v>15</v>
@@ -96617,36 +96617,36 @@
       </c>
       <c r="I1337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1337" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="K1337" t="n">
-        <v>42000</v>
+        <v>31000</v>
       </c>
       <c r="L1337" t="n">
-        <v>44000</v>
+        <v>32000</v>
       </c>
       <c r="M1337" t="n">
-        <v>43200</v>
+        <v>31484</v>
       </c>
       <c r="N1337" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1337" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1337" t="n">
-        <v>2400</v>
+        <v>2099</v>
       </c>
       <c r="Q1337" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1337" t="inlineStr">
         <is>
@@ -96684,7 +96684,7 @@
       </c>
       <c r="H1338" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1338" t="inlineStr">
@@ -96693,16 +96693,16 @@
         </is>
       </c>
       <c r="J1338" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K1338" t="n">
-        <v>18000</v>
+        <v>48000</v>
       </c>
       <c r="L1338" t="n">
-        <v>18000</v>
+        <v>48000</v>
       </c>
       <c r="M1338" t="n">
-        <v>18000</v>
+        <v>48000</v>
       </c>
       <c r="N1338" t="inlineStr">
         <is>
@@ -96715,7 +96715,7 @@
         </is>
       </c>
       <c r="P1338" t="n">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="Q1338" t="n">
         <v>18</v>
@@ -96756,43 +96756,259 @@
       </c>
       <c r="H1339" t="inlineStr">
         <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1339" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1339" t="n">
+        <v>150</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N1339" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1339" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1339" t="n">
+        <v>1867</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1339" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1340" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1340" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1340" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1340" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1340" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>44000</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>43200</v>
+      </c>
+      <c r="N1340" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1340" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1340" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1340" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1341" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1341" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1341" t="inlineStr">
+        <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1339" t="inlineStr">
+      <c r="I1341" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1341" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1341" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1341" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1341" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1341" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1342" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1342" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1342" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1342" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1339" t="n">
+      <c r="J1342" t="n">
         <v>80</v>
       </c>
-      <c r="K1339" t="n">
+      <c r="K1342" t="n">
         <v>15000</v>
       </c>
-      <c r="L1339" t="n">
+      <c r="L1342" t="n">
         <v>16000</v>
       </c>
-      <c r="M1339" t="n">
+      <c r="M1342" t="n">
         <v>15625</v>
       </c>
-      <c r="N1339" t="inlineStr">
+      <c r="N1342" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1339" t="inlineStr">
+      <c r="O1342" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1339" t="n">
+      <c r="P1342" t="n">
         <v>868</v>
       </c>
-      <c r="Q1339" t="n">
+      <c r="Q1342" t="n">
         <v>18</v>
       </c>
-      <c r="R1339" t="inlineStr">
+      <c r="R1342" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1354"/>
+  <dimension ref="A1:R1357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E1311" t="n">
         <v>13</v>
@@ -94740,7 +94740,7 @@
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -94752,13 +94752,13 @@
         <v>160</v>
       </c>
       <c r="K1311" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L1311" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M1311" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94767,11 +94767,11 @@
       </c>
       <c r="O1311" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>1167</v>
+        <v>1417</v>
       </c>
       <c r="Q1311" t="n">
         <v>18</v>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E1312" t="n">
         <v>13</v>
@@ -94812,7 +94812,7 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
@@ -94821,16 +94821,16 @@
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K1312" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L1312" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M1312" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94839,11 +94839,11 @@
       </c>
       <c r="O1312" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>1000</v>
+        <v>1278</v>
       </c>
       <c r="Q1312" t="n">
         <v>18</v>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E1313" t="n">
         <v>13</v>
@@ -94884,7 +94884,7 @@
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
@@ -94893,16 +94893,16 @@
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1313" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L1313" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M1313" t="n">
-        <v>16000</v>
+        <v>20500</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94911,11 +94911,11 @@
       </c>
       <c r="O1313" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>889</v>
+        <v>1139</v>
       </c>
       <c r="Q1313" t="n">
         <v>18</v>
@@ -94956,7 +94956,7 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
@@ -94965,16 +94965,16 @@
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1314" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="L1314" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M1314" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94987,7 +94987,7 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>722</v>
+        <v>1167</v>
       </c>
       <c r="Q1314" t="n">
         <v>18</v>
@@ -95028,7 +95028,7 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
@@ -95037,16 +95037,16 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1315" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L1315" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M1315" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95059,7 +95059,7 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q1315" t="n">
         <v>18</v>
@@ -95100,7 +95100,7 @@
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
@@ -95109,16 +95109,16 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1316" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L1316" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M1316" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95131,7 +95131,7 @@
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>389</v>
+        <v>889</v>
       </c>
       <c r="Q1316" t="n">
         <v>18</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1317" t="n">
         <v>13</v>
@@ -95172,7 +95172,7 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
@@ -95181,16 +95181,16 @@
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1317" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L1317" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M1317" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95199,11 +95199,11 @@
       </c>
       <c r="O1317" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q1317" t="n">
         <v>18</v>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1318" t="n">
         <v>13</v>
@@ -95244,7 +95244,7 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -95253,16 +95253,16 @@
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1318" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1318" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1318" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95271,11 +95271,11 @@
       </c>
       <c r="O1318" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q1318" t="n">
         <v>18</v>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1319" t="n">
         <v>13</v>
@@ -95316,7 +95316,7 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
@@ -95325,16 +95325,16 @@
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1319" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1319" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M1319" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95343,11 +95343,11 @@
       </c>
       <c r="O1319" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q1319" t="n">
         <v>18</v>
@@ -95388,7 +95388,7 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
@@ -95400,13 +95400,13 @@
         <v>160</v>
       </c>
       <c r="K1320" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1320" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1320" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95419,7 +95419,7 @@
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q1320" t="n">
         <v>18</v>
@@ -95460,7 +95460,7 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
@@ -95472,13 +95472,13 @@
         <v>70</v>
       </c>
       <c r="K1321" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1321" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1321" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95491,7 +95491,7 @@
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1321" t="n">
         <v>18</v>
@@ -95532,7 +95532,7 @@
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1322" t="inlineStr">
@@ -95544,13 +95544,13 @@
         <v>50</v>
       </c>
       <c r="K1322" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1322" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1322" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95563,7 +95563,7 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1322" t="n">
         <v>18</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1323" t="n">
         <v>13</v>
@@ -95604,7 +95604,7 @@
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
@@ -95616,13 +95616,13 @@
         <v>160</v>
       </c>
       <c r="K1323" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1323" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M1323" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95631,11 +95631,11 @@
       </c>
       <c r="O1323" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q1323" t="n">
         <v>18</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1324" t="n">
         <v>13</v>
@@ -95676,7 +95676,7 @@
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1324" t="inlineStr">
@@ -95688,13 +95688,13 @@
         <v>70</v>
       </c>
       <c r="K1324" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1324" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1324" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95703,11 +95703,11 @@
       </c>
       <c r="O1324" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q1324" t="n">
         <v>18</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1325" t="n">
         <v>13</v>
@@ -95748,7 +95748,7 @@
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1325" t="inlineStr">
@@ -95760,13 +95760,13 @@
         <v>50</v>
       </c>
       <c r="K1325" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1325" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1325" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95775,11 +95775,11 @@
       </c>
       <c r="O1325" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q1325" t="n">
         <v>18</v>
@@ -95820,7 +95820,7 @@
       </c>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
@@ -95829,16 +95829,16 @@
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1326" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1326" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M1326" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95851,7 +95851,7 @@
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q1326" t="n">
         <v>18</v>
@@ -95892,7 +95892,7 @@
       </c>
       <c r="H1327" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1327" t="inlineStr">
@@ -95901,16 +95901,16 @@
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1327" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1327" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1327" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95923,7 +95923,7 @@
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="Q1327" t="n">
         <v>18</v>
@@ -95964,7 +95964,7 @@
       </c>
       <c r="H1328" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1328" t="inlineStr">
@@ -95973,16 +95973,16 @@
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1328" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1328" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1328" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95995,7 +95995,7 @@
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="Q1328" t="n">
         <v>18</v>
@@ -96036,7 +96036,7 @@
       </c>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
@@ -96045,16 +96045,16 @@
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1329" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L1329" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M1329" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
@@ -96067,7 +96067,7 @@
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>1389</v>
+        <v>722</v>
       </c>
       <c r="Q1329" t="n">
         <v>18</v>
@@ -96108,7 +96108,7 @@
       </c>
       <c r="H1330" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1330" t="inlineStr">
@@ -96117,16 +96117,16 @@
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K1330" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L1330" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M1330" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
@@ -96139,7 +96139,7 @@
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>1278</v>
+        <v>611</v>
       </c>
       <c r="Q1330" t="n">
         <v>18</v>
@@ -96180,7 +96180,7 @@
       </c>
       <c r="H1331" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1331" t="inlineStr">
@@ -96189,16 +96189,16 @@
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K1331" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L1331" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M1331" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
@@ -96211,7 +96211,7 @@
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>1167</v>
+        <v>500</v>
       </c>
       <c r="Q1331" t="n">
         <v>18</v>
@@ -96252,7 +96252,7 @@
       </c>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
@@ -96261,16 +96261,16 @@
         </is>
       </c>
       <c r="J1332" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1332" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L1332" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M1332" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
@@ -96283,7 +96283,7 @@
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>1167</v>
+        <v>1389</v>
       </c>
       <c r="Q1332" t="n">
         <v>18</v>
@@ -96324,7 +96324,7 @@
       </c>
       <c r="H1333" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1333" t="inlineStr">
@@ -96333,16 +96333,16 @@
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1333" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L1333" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="M1333" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="N1333" t="inlineStr">
         <is>
@@ -96355,7 +96355,7 @@
         </is>
       </c>
       <c r="P1333" t="n">
-        <v>1056</v>
+        <v>1278</v>
       </c>
       <c r="Q1333" t="n">
         <v>18</v>
@@ -96396,7 +96396,7 @@
       </c>
       <c r="H1334" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1334" t="inlineStr">
@@ -96405,16 +96405,16 @@
         </is>
       </c>
       <c r="J1334" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K1334" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L1334" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M1334" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="N1334" t="inlineStr">
         <is>
@@ -96427,7 +96427,7 @@
         </is>
       </c>
       <c r="P1334" t="n">
-        <v>944</v>
+        <v>1167</v>
       </c>
       <c r="Q1334" t="n">
         <v>18</v>
@@ -96468,7 +96468,7 @@
       </c>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1335" t="inlineStr">
@@ -96477,16 +96477,16 @@
         </is>
       </c>
       <c r="J1335" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1335" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="L1335" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M1335" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="N1335" t="inlineStr">
         <is>
@@ -96499,7 +96499,7 @@
         </is>
       </c>
       <c r="P1335" t="n">
-        <v>722</v>
+        <v>1167</v>
       </c>
       <c r="Q1335" t="n">
         <v>18</v>
@@ -96540,7 +96540,7 @@
       </c>
       <c r="H1336" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1336" t="inlineStr">
@@ -96549,16 +96549,16 @@
         </is>
       </c>
       <c r="J1336" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1336" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L1336" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M1336" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="N1336" t="inlineStr">
         <is>
@@ -96571,7 +96571,7 @@
         </is>
       </c>
       <c r="P1336" t="n">
-        <v>611</v>
+        <v>1056</v>
       </c>
       <c r="Q1336" t="n">
         <v>18</v>
@@ -96612,7 +96612,7 @@
       </c>
       <c r="H1337" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1337" t="inlineStr">
@@ -96621,16 +96621,16 @@
         </is>
       </c>
       <c r="J1337" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1337" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L1337" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M1337" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="N1337" t="inlineStr">
         <is>
@@ -96643,7 +96643,7 @@
         </is>
       </c>
       <c r="P1337" t="n">
-        <v>500</v>
+        <v>944</v>
       </c>
       <c r="Q1337" t="n">
         <v>18</v>
@@ -96669,7 +96669,7 @@
         </is>
       </c>
       <c r="D1338" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1338" t="n">
         <v>13</v>
@@ -96684,7 +96684,7 @@
       </c>
       <c r="H1338" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1338" t="inlineStr">
@@ -96693,16 +96693,16 @@
         </is>
       </c>
       <c r="J1338" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1338" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L1338" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M1338" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N1338" t="inlineStr">
         <is>
@@ -96715,7 +96715,7 @@
         </is>
       </c>
       <c r="P1338" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q1338" t="n">
         <v>18</v>
@@ -96741,7 +96741,7 @@
         </is>
       </c>
       <c r="D1339" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1339" t="n">
         <v>13</v>
@@ -96756,7 +96756,7 @@
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
@@ -96765,16 +96765,16 @@
         </is>
       </c>
       <c r="J1339" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1339" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1339" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M1339" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N1339" t="inlineStr">
         <is>
@@ -96787,7 +96787,7 @@
         </is>
       </c>
       <c r="P1339" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q1339" t="n">
         <v>18</v>
@@ -96813,7 +96813,7 @@
         </is>
       </c>
       <c r="D1340" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1340" t="n">
         <v>13</v>
@@ -96828,7 +96828,7 @@
       </c>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1340" t="inlineStr">
@@ -96837,16 +96837,16 @@
         </is>
       </c>
       <c r="J1340" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1340" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1340" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1340" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N1340" t="inlineStr">
         <is>
@@ -96859,7 +96859,7 @@
         </is>
       </c>
       <c r="P1340" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q1340" t="n">
         <v>18</v>
@@ -96900,7 +96900,7 @@
       </c>
       <c r="H1341" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1341" t="inlineStr">
@@ -96912,13 +96912,13 @@
         <v>160</v>
       </c>
       <c r="K1341" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L1341" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M1341" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N1341" t="inlineStr">
         <is>
@@ -96931,7 +96931,7 @@
         </is>
       </c>
       <c r="P1341" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q1341" t="n">
         <v>18</v>
@@ -96972,7 +96972,7 @@
       </c>
       <c r="H1342" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1342" t="inlineStr">
@@ -96984,13 +96984,13 @@
         <v>70</v>
       </c>
       <c r="K1342" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L1342" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1342" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N1342" t="inlineStr">
         <is>
@@ -97003,7 +97003,7 @@
         </is>
       </c>
       <c r="P1342" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q1342" t="n">
         <v>18</v>
@@ -97044,7 +97044,7 @@
       </c>
       <c r="H1343" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1343" t="inlineStr">
@@ -97056,13 +97056,13 @@
         <v>50</v>
       </c>
       <c r="K1343" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1343" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1343" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N1343" t="inlineStr">
         <is>
@@ -97075,7 +97075,7 @@
         </is>
       </c>
       <c r="P1343" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q1343" t="n">
         <v>18</v>
@@ -97116,7 +97116,7 @@
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1344" t="inlineStr">
@@ -97128,13 +97128,13 @@
         <v>160</v>
       </c>
       <c r="K1344" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1344" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1344" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1344" t="inlineStr">
         <is>
@@ -97143,11 +97143,11 @@
       </c>
       <c r="O1344" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1344" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1344" t="n">
         <v>18</v>
@@ -97188,7 +97188,7 @@
       </c>
       <c r="H1345" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1345" t="inlineStr">
@@ -97200,13 +97200,13 @@
         <v>70</v>
       </c>
       <c r="K1345" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1345" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1345" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N1345" t="inlineStr">
         <is>
@@ -97215,11 +97215,11 @@
       </c>
       <c r="O1345" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1345" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1345" t="n">
         <v>18</v>
@@ -97260,7 +97260,7 @@
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1346" t="inlineStr">
@@ -97272,13 +97272,13 @@
         <v>50</v>
       </c>
       <c r="K1346" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1346" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1346" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1346" t="inlineStr">
         <is>
@@ -97287,11 +97287,11 @@
       </c>
       <c r="O1346" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1346" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="Q1346" t="n">
         <v>18</v>
@@ -97317,7 +97317,7 @@
         </is>
       </c>
       <c r="D1347" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1347" t="n">
         <v>13</v>
@@ -97332,7 +97332,7 @@
       </c>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1347" t="inlineStr">
@@ -97344,29 +97344,29 @@
         <v>160</v>
       </c>
       <c r="K1347" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="L1347" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="M1347" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="N1347" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1347" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1347" t="n">
-        <v>2267</v>
+        <v>444</v>
       </c>
       <c r="Q1347" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1347" t="inlineStr">
         <is>
@@ -97389,7 +97389,7 @@
         </is>
       </c>
       <c r="D1348" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1348" t="n">
         <v>13</v>
@@ -97404,7 +97404,7 @@
       </c>
       <c r="H1348" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1348" t="inlineStr">
@@ -97413,32 +97413,32 @@
         </is>
       </c>
       <c r="J1348" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K1348" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="L1348" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M1348" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="N1348" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1348" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1348" t="n">
-        <v>2000</v>
+        <v>333</v>
       </c>
       <c r="Q1348" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1348" t="inlineStr">
         <is>
@@ -97461,7 +97461,7 @@
         </is>
       </c>
       <c r="D1349" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1349" t="n">
         <v>13</v>
@@ -97476,41 +97476,41 @@
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1349" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="K1349" t="n">
-        <v>31000</v>
+        <v>4000</v>
       </c>
       <c r="L1349" t="n">
-        <v>32000</v>
+        <v>4000</v>
       </c>
       <c r="M1349" t="n">
-        <v>31484</v>
+        <v>4000</v>
       </c>
       <c r="N1349" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1349" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1349" t="n">
-        <v>2099</v>
+        <v>222</v>
       </c>
       <c r="Q1349" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1349" t="inlineStr">
         <is>
@@ -97548,7 +97548,7 @@
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1350" t="inlineStr">
@@ -97557,32 +97557,32 @@
         </is>
       </c>
       <c r="J1350" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1350" t="n">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="L1350" t="n">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="M1350" t="n">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="N1350" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1350" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1350" t="n">
-        <v>2667</v>
+        <v>2267</v>
       </c>
       <c r="Q1350" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1350" t="inlineStr">
         <is>
@@ -97620,7 +97620,7 @@
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1351" t="inlineStr">
@@ -97629,16 +97629,16 @@
         </is>
       </c>
       <c r="J1351" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K1351" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L1351" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M1351" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N1351" t="inlineStr">
         <is>
@@ -97651,7 +97651,7 @@
         </is>
       </c>
       <c r="P1351" t="n">
-        <v>1867</v>
+        <v>2000</v>
       </c>
       <c r="Q1351" t="n">
         <v>15</v>
@@ -97697,36 +97697,36 @@
       </c>
       <c r="I1352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1352" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="K1352" t="n">
-        <v>42000</v>
+        <v>31000</v>
       </c>
       <c r="L1352" t="n">
-        <v>44000</v>
+        <v>32000</v>
       </c>
       <c r="M1352" t="n">
-        <v>43200</v>
+        <v>31484</v>
       </c>
       <c r="N1352" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1352" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1352" t="n">
-        <v>2400</v>
+        <v>2099</v>
       </c>
       <c r="Q1352" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1352" t="inlineStr">
         <is>
@@ -97764,7 +97764,7 @@
       </c>
       <c r="H1353" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1353" t="inlineStr">
@@ -97773,16 +97773,16 @@
         </is>
       </c>
       <c r="J1353" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K1353" t="n">
-        <v>18000</v>
+        <v>48000</v>
       </c>
       <c r="L1353" t="n">
-        <v>18000</v>
+        <v>48000</v>
       </c>
       <c r="M1353" t="n">
-        <v>18000</v>
+        <v>48000</v>
       </c>
       <c r="N1353" t="inlineStr">
         <is>
@@ -97795,7 +97795,7 @@
         </is>
       </c>
       <c r="P1353" t="n">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="Q1353" t="n">
         <v>18</v>
@@ -97836,43 +97836,259 @@
       </c>
       <c r="H1354" t="inlineStr">
         <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1354" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1354" t="n">
+        <v>150</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N1354" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1354" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1354" t="n">
+        <v>1867</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1354" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1355" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1355" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1355" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1355" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1355" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>44000</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>43200</v>
+      </c>
+      <c r="N1355" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1355" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1355" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1355" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1356" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1356" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1356" t="inlineStr">
+        <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1354" t="inlineStr">
+      <c r="I1356" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1356" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1356" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1356" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1356" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1356" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1357" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1357" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1357" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1357" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1354" t="n">
+      <c r="J1357" t="n">
         <v>80</v>
       </c>
-      <c r="K1354" t="n">
+      <c r="K1357" t="n">
         <v>15000</v>
       </c>
-      <c r="L1354" t="n">
+      <c r="L1357" t="n">
         <v>16000</v>
       </c>
-      <c r="M1354" t="n">
+      <c r="M1357" t="n">
         <v>15625</v>
       </c>
-      <c r="N1354" t="inlineStr">
+      <c r="N1357" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1354" t="inlineStr">
+      <c r="O1357" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1354" t="n">
+      <c r="P1357" t="n">
         <v>868</v>
       </c>
-      <c r="Q1354" t="n">
+      <c r="Q1357" t="n">
         <v>18</v>
       </c>
-      <c r="R1354" t="inlineStr">
+      <c r="R1357" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1384"/>
+  <dimension ref="A1:R1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1318" t="n">
         <v>13</v>
@@ -95244,7 +95244,7 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -95253,16 +95253,16 @@
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K1318" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1318" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="M1318" t="n">
-        <v>12000</v>
+        <v>31920</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95271,11 +95271,11 @@
       </c>
       <c r="O1318" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>667</v>
+        <v>1773</v>
       </c>
       <c r="Q1318" t="n">
         <v>18</v>
@@ -95321,20 +95321,20 @@
       </c>
       <c r="I1319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1319" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1319" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1319" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95347,7 +95347,7 @@
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1319" t="n">
         <v>18</v>
@@ -95388,25 +95388,25 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1320" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L1320" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1320" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95415,11 +95415,11 @@
       </c>
       <c r="O1320" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q1320" t="n">
         <v>18</v>
@@ -95465,20 +95465,20 @@
       </c>
       <c r="I1321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1321" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1321" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1321" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95491,7 +95491,7 @@
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="Q1321" t="n">
         <v>18</v>
@@ -95537,20 +95537,20 @@
       </c>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1322" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L1322" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1322" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95563,7 +95563,7 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q1322" t="n">
         <v>18</v>
@@ -95604,25 +95604,25 @@
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K1323" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L1323" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1323" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95635,7 +95635,7 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="Q1323" t="n">
         <v>18</v>
@@ -95681,20 +95681,20 @@
       </c>
       <c r="I1324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1324" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1324" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1324" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95707,7 +95707,7 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1324" t="n">
         <v>18</v>
@@ -95753,20 +95753,20 @@
       </c>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1325" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1325" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1325" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95779,7 +95779,7 @@
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1325" t="n">
         <v>18</v>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1326" t="n">
         <v>13</v>
@@ -95820,25 +95820,25 @@
       </c>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1326" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1326" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M1326" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95851,7 +95851,7 @@
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q1326" t="n">
         <v>18</v>
@@ -95897,20 +95897,20 @@
       </c>
       <c r="I1327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1327" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1327" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1327" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95923,7 +95923,7 @@
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1327" t="n">
         <v>18</v>
@@ -95969,20 +95969,20 @@
       </c>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1328" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1328" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1328" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95995,7 +95995,7 @@
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1328" t="n">
         <v>18</v>
@@ -96036,25 +96036,25 @@
       </c>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1329" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L1329" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M1329" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
@@ -96067,7 +96067,7 @@
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q1329" t="n">
         <v>18</v>
@@ -96113,20 +96113,20 @@
       </c>
       <c r="I1330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1330" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1330" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1330" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
@@ -96139,7 +96139,7 @@
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1330" t="n">
         <v>18</v>
@@ -96185,20 +96185,20 @@
       </c>
       <c r="I1331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1331" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1331" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1331" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
@@ -96211,7 +96211,7 @@
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q1331" t="n">
         <v>18</v>
@@ -96237,7 +96237,7 @@
         </is>
       </c>
       <c r="D1332" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1332" t="n">
         <v>13</v>
@@ -96252,25 +96252,25 @@
       </c>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1332" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K1332" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="L1332" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M1332" t="n">
-        <v>25524</v>
+        <v>7000</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
@@ -96283,7 +96283,7 @@
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>1418</v>
+        <v>389</v>
       </c>
       <c r="Q1332" t="n">
         <v>18</v>
@@ -96329,20 +96329,20 @@
       </c>
       <c r="I1333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="K1333" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L1333" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M1333" t="n">
-        <v>23000</v>
+        <v>25524</v>
       </c>
       <c r="N1333" t="inlineStr">
         <is>
@@ -96355,7 +96355,7 @@
         </is>
       </c>
       <c r="P1333" t="n">
-        <v>1278</v>
+        <v>1418</v>
       </c>
       <c r="Q1333" t="n">
         <v>18</v>
@@ -96401,20 +96401,20 @@
       </c>
       <c r="I1334" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1334" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K1334" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L1334" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M1334" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N1334" t="inlineStr">
         <is>
@@ -96427,7 +96427,7 @@
         </is>
       </c>
       <c r="P1334" t="n">
-        <v>1111</v>
+        <v>1278</v>
       </c>
       <c r="Q1334" t="n">
         <v>18</v>
@@ -96468,25 +96468,25 @@
       </c>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1335" t="n">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="K1335" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L1335" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M1335" t="n">
-        <v>15519</v>
+        <v>20000</v>
       </c>
       <c r="N1335" t="inlineStr">
         <is>
@@ -96499,7 +96499,7 @@
         </is>
       </c>
       <c r="P1335" t="n">
-        <v>862</v>
+        <v>1111</v>
       </c>
       <c r="Q1335" t="n">
         <v>18</v>
@@ -96545,20 +96545,20 @@
       </c>
       <c r="I1336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1336" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="K1336" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1336" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1336" t="n">
-        <v>13000</v>
+        <v>15519</v>
       </c>
       <c r="N1336" t="inlineStr">
         <is>
@@ -96571,7 +96571,7 @@
         </is>
       </c>
       <c r="P1336" t="n">
-        <v>722</v>
+        <v>862</v>
       </c>
       <c r="Q1336" t="n">
         <v>18</v>
@@ -96617,20 +96617,20 @@
       </c>
       <c r="I1337" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1337" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K1337" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1337" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1337" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N1337" t="inlineStr">
         <is>
@@ -96643,7 +96643,7 @@
         </is>
       </c>
       <c r="P1337" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q1337" t="n">
         <v>18</v>
@@ -96669,7 +96669,7 @@
         </is>
       </c>
       <c r="D1338" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1338" t="n">
         <v>13</v>
@@ -96684,25 +96684,25 @@
       </c>
       <c r="H1338" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1338" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K1338" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L1338" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M1338" t="n">
-        <v>25500</v>
+        <v>10000</v>
       </c>
       <c r="N1338" t="inlineStr">
         <is>
@@ -96711,11 +96711,11 @@
       </c>
       <c r="O1338" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1338" t="n">
-        <v>1417</v>
+        <v>556</v>
       </c>
       <c r="Q1338" t="n">
         <v>18</v>
@@ -96761,20 +96761,20 @@
       </c>
       <c r="I1339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1339" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1339" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L1339" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M1339" t="n">
-        <v>23000</v>
+        <v>25500</v>
       </c>
       <c r="N1339" t="inlineStr">
         <is>
@@ -96787,7 +96787,7 @@
         </is>
       </c>
       <c r="P1339" t="n">
-        <v>1278</v>
+        <v>1417</v>
       </c>
       <c r="Q1339" t="n">
         <v>18</v>
@@ -96833,20 +96833,20 @@
       </c>
       <c r="I1340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1340" t="n">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K1340" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L1340" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M1340" t="n">
-        <v>20500</v>
+        <v>23000</v>
       </c>
       <c r="N1340" t="inlineStr">
         <is>
@@ -96859,7 +96859,7 @@
         </is>
       </c>
       <c r="P1340" t="n">
-        <v>1139</v>
+        <v>1278</v>
       </c>
       <c r="Q1340" t="n">
         <v>18</v>
@@ -96885,7 +96885,7 @@
         </is>
       </c>
       <c r="D1341" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E1341" t="n">
         <v>13</v>
@@ -96900,25 +96900,25 @@
       </c>
       <c r="H1341" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1341" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1341" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L1341" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M1341" t="n">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="N1341" t="inlineStr">
         <is>
@@ -96927,11 +96927,11 @@
       </c>
       <c r="O1341" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1341" t="n">
-        <v>1167</v>
+        <v>1139</v>
       </c>
       <c r="Q1341" t="n">
         <v>18</v>
@@ -96977,20 +96977,20 @@
       </c>
       <c r="I1342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1342" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1342" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L1342" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M1342" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N1342" t="inlineStr">
         <is>
@@ -97003,7 +97003,7 @@
         </is>
       </c>
       <c r="P1342" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="Q1342" t="n">
         <v>18</v>
@@ -97049,20 +97049,20 @@
       </c>
       <c r="I1343" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1343" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1343" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L1343" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1343" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N1343" t="inlineStr">
         <is>
@@ -97075,7 +97075,7 @@
         </is>
       </c>
       <c r="P1343" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q1343" t="n">
         <v>18</v>
@@ -97116,25 +97116,25 @@
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1344" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K1344" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L1344" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1344" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N1344" t="inlineStr">
         <is>
@@ -97147,7 +97147,7 @@
         </is>
       </c>
       <c r="P1344" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="Q1344" t="n">
         <v>18</v>
@@ -97193,20 +97193,20 @@
       </c>
       <c r="I1345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1345" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1345" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1345" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1345" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N1345" t="inlineStr">
         <is>
@@ -97219,7 +97219,7 @@
         </is>
       </c>
       <c r="P1345" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q1345" t="n">
         <v>18</v>
@@ -97265,20 +97265,20 @@
       </c>
       <c r="I1346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1346" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1346" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1346" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1346" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N1346" t="inlineStr">
         <is>
@@ -97291,7 +97291,7 @@
         </is>
       </c>
       <c r="P1346" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q1346" t="n">
         <v>18</v>
@@ -97317,7 +97317,7 @@
         </is>
       </c>
       <c r="D1347" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1347" t="n">
         <v>13</v>
@@ -97332,25 +97332,25 @@
       </c>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1347" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1347" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L1347" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M1347" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N1347" t="inlineStr">
         <is>
@@ -97359,11 +97359,11 @@
       </c>
       <c r="O1347" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1347" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="Q1347" t="n">
         <v>18</v>
@@ -97409,20 +97409,20 @@
       </c>
       <c r="I1348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1348" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1348" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1348" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1348" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N1348" t="inlineStr">
         <is>
@@ -97435,7 +97435,7 @@
         </is>
       </c>
       <c r="P1348" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q1348" t="n">
         <v>18</v>
@@ -97481,20 +97481,20 @@
       </c>
       <c r="I1349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1349" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1349" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1349" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1349" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1349" t="inlineStr">
         <is>
@@ -97507,7 +97507,7 @@
         </is>
       </c>
       <c r="P1349" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1349" t="n">
         <v>18</v>
@@ -97548,25 +97548,25 @@
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1350" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1350" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1350" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1350" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N1350" t="inlineStr">
         <is>
@@ -97579,7 +97579,7 @@
         </is>
       </c>
       <c r="P1350" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q1350" t="n">
         <v>18</v>
@@ -97625,20 +97625,20 @@
       </c>
       <c r="I1351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1351" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1351" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1351" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1351" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1351" t="inlineStr">
         <is>
@@ -97651,7 +97651,7 @@
         </is>
       </c>
       <c r="P1351" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1351" t="n">
         <v>18</v>
@@ -97697,20 +97697,20 @@
       </c>
       <c r="I1352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1352" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1352" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1352" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1352" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1352" t="inlineStr">
         <is>
@@ -97723,7 +97723,7 @@
         </is>
       </c>
       <c r="P1352" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1352" t="n">
         <v>18</v>
@@ -97749,7 +97749,7 @@
         </is>
       </c>
       <c r="D1353" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1353" t="n">
         <v>13</v>
@@ -97764,25 +97764,25 @@
       </c>
       <c r="H1353" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1353" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1353" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L1353" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M1353" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N1353" t="inlineStr">
         <is>
@@ -97791,11 +97791,11 @@
       </c>
       <c r="O1353" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="P1353" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="Q1353" t="n">
         <v>18</v>
@@ -97841,20 +97841,20 @@
       </c>
       <c r="I1354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1354" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1354" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1354" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M1354" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N1354" t="inlineStr">
         <is>
@@ -97867,7 +97867,7 @@
         </is>
       </c>
       <c r="P1354" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="Q1354" t="n">
         <v>18</v>
@@ -97913,20 +97913,20 @@
       </c>
       <c r="I1355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1355" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1355" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1355" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1355" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N1355" t="inlineStr">
         <is>
@@ -97939,7 +97939,7 @@
         </is>
       </c>
       <c r="P1355" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="Q1355" t="n">
         <v>18</v>
@@ -97980,16 +97980,16 @@
       </c>
       <c r="H1356" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1356" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K1356" t="n">
         <v>13000</v>
@@ -98057,20 +98057,20 @@
       </c>
       <c r="I1357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1357" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1357" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1357" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1357" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1357" t="inlineStr">
         <is>
@@ -98083,7 +98083,7 @@
         </is>
       </c>
       <c r="P1357" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1357" t="n">
         <v>18</v>
@@ -98129,20 +98129,20 @@
       </c>
       <c r="I1358" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1358" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1358" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1358" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1358" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1358" t="inlineStr">
         <is>
@@ -98155,7 +98155,7 @@
         </is>
       </c>
       <c r="P1358" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1358" t="n">
         <v>18</v>
@@ -98196,25 +98196,25 @@
       </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1359" t="n">
         <v>70</v>
       </c>
       <c r="K1359" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="L1359" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="M1359" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="N1359" t="inlineStr">
         <is>
@@ -98227,7 +98227,7 @@
         </is>
       </c>
       <c r="P1359" t="n">
-        <v>1389</v>
+        <v>500</v>
       </c>
       <c r="Q1359" t="n">
         <v>18</v>
@@ -98273,20 +98273,20 @@
       </c>
       <c r="I1360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1360" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1360" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L1360" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M1360" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N1360" t="inlineStr">
         <is>
@@ -98299,7 +98299,7 @@
         </is>
       </c>
       <c r="P1360" t="n">
-        <v>1278</v>
+        <v>1389</v>
       </c>
       <c r="Q1360" t="n">
         <v>18</v>
@@ -98345,20 +98345,20 @@
       </c>
       <c r="I1361" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1361" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K1361" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L1361" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M1361" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N1361" t="inlineStr">
         <is>
@@ -98371,7 +98371,7 @@
         </is>
       </c>
       <c r="P1361" t="n">
-        <v>1167</v>
+        <v>1278</v>
       </c>
       <c r="Q1361" t="n">
         <v>18</v>
@@ -98412,16 +98412,16 @@
       </c>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1362" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K1362" t="n">
         <v>21000</v>
@@ -98489,20 +98489,20 @@
       </c>
       <c r="I1363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1363" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1363" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="L1363" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M1363" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="N1363" t="inlineStr">
         <is>
@@ -98515,7 +98515,7 @@
         </is>
       </c>
       <c r="P1363" t="n">
-        <v>1056</v>
+        <v>1167</v>
       </c>
       <c r="Q1363" t="n">
         <v>18</v>
@@ -98561,20 +98561,20 @@
       </c>
       <c r="I1364" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1364" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1364" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L1364" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M1364" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N1364" t="inlineStr">
         <is>
@@ -98587,7 +98587,7 @@
         </is>
       </c>
       <c r="P1364" t="n">
-        <v>944</v>
+        <v>1056</v>
       </c>
       <c r="Q1364" t="n">
         <v>18</v>
@@ -98628,25 +98628,25 @@
       </c>
       <c r="H1365" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1365" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K1365" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1365" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M1365" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N1365" t="inlineStr">
         <is>
@@ -98659,7 +98659,7 @@
         </is>
       </c>
       <c r="P1365" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q1365" t="n">
         <v>18</v>
@@ -98705,20 +98705,20 @@
       </c>
       <c r="I1366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1366" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1366" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1366" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1366" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1366" t="inlineStr">
         <is>
@@ -98731,7 +98731,7 @@
         </is>
       </c>
       <c r="P1366" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q1366" t="n">
         <v>18</v>
@@ -98777,20 +98777,20 @@
       </c>
       <c r="I1367" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1367" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1367" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1367" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1367" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1367" t="inlineStr">
         <is>
@@ -98803,7 +98803,7 @@
         </is>
       </c>
       <c r="P1367" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1367" t="n">
         <v>18</v>
@@ -98829,7 +98829,7 @@
         </is>
       </c>
       <c r="D1368" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1368" t="n">
         <v>13</v>
@@ -98844,25 +98844,25 @@
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1368" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1368" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L1368" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M1368" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N1368" t="inlineStr">
         <is>
@@ -98875,7 +98875,7 @@
         </is>
       </c>
       <c r="P1368" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q1368" t="n">
         <v>18</v>
@@ -98921,20 +98921,20 @@
       </c>
       <c r="I1369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1369" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1369" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1369" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1369" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N1369" t="inlineStr">
         <is>
@@ -98947,7 +98947,7 @@
         </is>
       </c>
       <c r="P1369" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q1369" t="n">
         <v>18</v>
@@ -98993,20 +98993,20 @@
       </c>
       <c r="I1370" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1370" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1370" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1370" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1370" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N1370" t="inlineStr">
         <is>
@@ -99019,7 +99019,7 @@
         </is>
       </c>
       <c r="P1370" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q1370" t="n">
         <v>18</v>
@@ -99060,25 +99060,25 @@
       </c>
       <c r="H1371" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1371" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1371" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L1371" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1371" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N1371" t="inlineStr">
         <is>
@@ -99091,7 +99091,7 @@
         </is>
       </c>
       <c r="P1371" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q1371" t="n">
         <v>18</v>
@@ -99137,20 +99137,20 @@
       </c>
       <c r="I1372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1372" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1372" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1372" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1372" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1372" t="inlineStr">
         <is>
@@ -99163,7 +99163,7 @@
         </is>
       </c>
       <c r="P1372" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1372" t="n">
         <v>18</v>
@@ -99209,20 +99209,20 @@
       </c>
       <c r="I1373" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1373" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1373" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1373" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1373" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N1373" t="inlineStr">
         <is>
@@ -99235,7 +99235,7 @@
         </is>
       </c>
       <c r="P1373" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q1373" t="n">
         <v>18</v>
@@ -99276,25 +99276,25 @@
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1374" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1374" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1374" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1374" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1374" t="inlineStr">
         <is>
@@ -99303,11 +99303,11 @@
       </c>
       <c r="O1374" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1374" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q1374" t="n">
         <v>18</v>
@@ -99353,20 +99353,20 @@
       </c>
       <c r="I1375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1375" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1375" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1375" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1375" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N1375" t="inlineStr">
         <is>
@@ -99379,7 +99379,7 @@
         </is>
       </c>
       <c r="P1375" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q1375" t="n">
         <v>18</v>
@@ -99425,20 +99425,20 @@
       </c>
       <c r="I1376" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1376" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1376" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1376" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1376" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1376" t="inlineStr">
         <is>
@@ -99451,7 +99451,7 @@
         </is>
       </c>
       <c r="P1376" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q1376" t="n">
         <v>18</v>
@@ -99477,7 +99477,7 @@
         </is>
       </c>
       <c r="D1377" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1377" t="n">
         <v>13</v>
@@ -99492,41 +99492,41 @@
       </c>
       <c r="H1377" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1377" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1377" t="n">
-        <v>34000</v>
+        <v>4000</v>
       </c>
       <c r="L1377" t="n">
-        <v>34000</v>
+        <v>4000</v>
       </c>
       <c r="M1377" t="n">
-        <v>34000</v>
+        <v>4000</v>
       </c>
       <c r="N1377" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1377" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1377" t="n">
-        <v>2267</v>
+        <v>222</v>
       </c>
       <c r="Q1377" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1377" t="inlineStr">
         <is>
@@ -99569,20 +99569,20 @@
       </c>
       <c r="I1378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1378" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K1378" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L1378" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M1378" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="N1378" t="inlineStr">
         <is>
@@ -99595,7 +99595,7 @@
         </is>
       </c>
       <c r="P1378" t="n">
-        <v>2000</v>
+        <v>2267</v>
       </c>
       <c r="Q1378" t="n">
         <v>15</v>
@@ -99636,25 +99636,25 @@
       </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1379" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K1379" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L1379" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M1379" t="n">
-        <v>31484</v>
+        <v>30000</v>
       </c>
       <c r="N1379" t="inlineStr">
         <is>
@@ -99667,7 +99667,7 @@
         </is>
       </c>
       <c r="P1379" t="n">
-        <v>2099</v>
+        <v>2000</v>
       </c>
       <c r="Q1379" t="n">
         <v>15</v>
@@ -99717,32 +99717,32 @@
         </is>
       </c>
       <c r="J1380" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K1380" t="n">
-        <v>48000</v>
+        <v>31000</v>
       </c>
       <c r="L1380" t="n">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="M1380" t="n">
-        <v>48000</v>
+        <v>31484</v>
       </c>
       <c r="N1380" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1380" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1380" t="n">
-        <v>2667</v>
+        <v>2099</v>
       </c>
       <c r="Q1380" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1380" t="inlineStr">
         <is>
@@ -99785,36 +99785,36 @@
       </c>
       <c r="I1381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1381" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K1381" t="n">
-        <v>28000</v>
+        <v>48000</v>
       </c>
       <c r="L1381" t="n">
-        <v>28000</v>
+        <v>48000</v>
       </c>
       <c r="M1381" t="n">
-        <v>28000</v>
+        <v>48000</v>
       </c>
       <c r="N1381" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1381" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1381" t="n">
-        <v>1867</v>
+        <v>2667</v>
       </c>
       <c r="Q1381" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1381" t="inlineStr">
         <is>
@@ -99861,32 +99861,32 @@
         </is>
       </c>
       <c r="J1382" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K1382" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="L1382" t="n">
-        <v>44000</v>
+        <v>28000</v>
       </c>
       <c r="M1382" t="n">
-        <v>43200</v>
+        <v>28000</v>
       </c>
       <c r="N1382" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1382" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1382" t="n">
-        <v>2400</v>
+        <v>1867</v>
       </c>
       <c r="Q1382" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1382" t="inlineStr">
         <is>
@@ -99924,25 +99924,25 @@
       </c>
       <c r="H1383" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1383" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K1383" t="n">
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="L1383" t="n">
-        <v>18000</v>
+        <v>44000</v>
       </c>
       <c r="M1383" t="n">
-        <v>18000</v>
+        <v>43200</v>
       </c>
       <c r="N1383" t="inlineStr">
         <is>
@@ -99955,7 +99955,7 @@
         </is>
       </c>
       <c r="P1383" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="Q1383" t="n">
         <v>18</v>
@@ -100001,20 +100001,20 @@
       </c>
       <c r="I1384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1384" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K1384" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1384" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1384" t="n">
-        <v>15625</v>
+        <v>18000</v>
       </c>
       <c r="N1384" t="inlineStr">
         <is>
@@ -100027,12 +100027,84 @@
         </is>
       </c>
       <c r="P1384" t="n">
-        <v>868</v>
+        <v>1000</v>
       </c>
       <c r="Q1384" t="n">
         <v>18</v>
       </c>
       <c r="R1384" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1385" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1385" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1385" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1385" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1385" t="n">
+        <v>80</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>15625</v>
+      </c>
+      <c r="N1385" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1385" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1385" t="n">
+        <v>868</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1385" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
